--- a/static/SancomContents.xlsx
+++ b/static/SancomContents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oz5ja\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FBE059-0711-4D43-A566-8E833C90F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8624FD9A-C823-4132-B9E0-992FC50FDD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="0" windowWidth="21192" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="228" yWindow="336" windowWidth="22812" windowHeight="12024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="1822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1835">
   <si>
     <t>SampleMeaning</t>
   </si>
@@ -6368,36 +6368,11 @@
     <t>Hello! I'm John Russek. Today, we will explore one of the common issues that Hindi and Punjabi speakers face when pronouncing English words. Even if you speak a different language you can still learn from this video!  In Hindi and Punjabi, word stress is fairly regular. Stress often falls on the first syllable of a word or in the first part of a sentence. But Americans often put stress in the middle or end of a word. They also often put stress at the middle or end of a sentence. So, a speaker of Hindi or Punjabi might put stress on the first part of a word, like this, "above or below". But Americans generally place the stress later in the word, like this "above, below."  And a speaker of Hindi or Punjabi might put stress on words at the beginning of a sentence, like this: "Nice to meet you." Whereas Americans generally put stress later in the sentence, like this: "Nice to meet you."  If your language often place stress on the beginnings of words, or the beginnings of sentences, then you will probably need to practice a lot more with word stress in English. Be sure to check previous videos in the series for more information about words stress! That's all for today!  Keep up the good work.</t>
   </si>
   <si>
-    <t>VOA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LIBRIOVOX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">THE GREAT GATSBY,  BY F. SCOTT FITZGERALD,   CHAPTER 1,  In my younger and more vulnerable years my father gave me some advice that I’ve been turning over in my mind ever since.  “Whenever you feel like criticising any one,” he told me, ‘‘just remember that all the people in this world haven’t had the advantages that you’ve had.”  He didn’t say any more, but we’ve always been unusually communicative in a reserved way, and I understood that he meant a great deal more than that. In consequence, I’m inclined to reserve all judgments, a habit that has opened up many curious natures to me and also made me the victim of not a few veteran bores. The abnormal mind is quick to detect and attach itself to this quality when it appears in a normal person, and so it came about that in college I was unjustly accused of being a politician, because I was privy to the secret griefs of wild, unknown men. Most of the confidences were unsought—frequently I have feigned sleep, preoccupation, or a hostile levity when I realized by some unmistakable sign that an intimate revelation was quivering on the horizon; for the intimate revelations of young men, or at least the terms in I which they express them, are usually plagiaristic and marred by obvious suppressions. Reserving judgments is a matter of infinite hope. I am still a little afraid of missing something if I forget that, as my father snobbishly suggested, and I snobbishly repeat, a sense of the fundamental decencies is parcelled out unequally at birth.  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>librivox.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Voice of America の略。 テーマ： "How To Pronouce"</t>
-    <rPh sb="18" eb="19">
-      <t>リャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>米小説集（ボランティア朗読）。「華麗なるギャッビー」 冒頭部</t>
-    <rPh sb="11" eb="13">
-      <t>ロウドク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ボウトウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -8552,6 +8527,98 @@
     <rPh sb="9" eb="10">
       <t>オシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>librivox2.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>華麗なるギャッピー 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>華麗なるギャッピー 2</t>
+  </si>
+  <si>
+    <t>華麗なるギャッピー 3</t>
+  </si>
+  <si>
+    <t>裸の王様 1</t>
+    <rPh sb="0" eb="1">
+      <t>ハダカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オウサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>老人と海 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VOA (Voice of America)より</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIBRIVOX (米小説集)より</t>
+    <rPh sb="10" eb="11">
+      <t>ベイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウセツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンデルセン物語</t>
+    <rPh sb="6" eb="8">
+      <t>モノガタリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theoldman1.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emperor1.wav</t>
+  </si>
+  <si>
+    <t>And, after boasting this way of my tolerance, I come to the admission that it has a limit. Conduct may be founded on the hard rock or the wet marshes, but after a certain point I don’t care what it’s founded on. When I came back from the East last autumn I felt that I wanted the world to be in uniform and at a sort of moral attention forever; I wanted no more riotous excursions with privileged glimpses into the human heart. Only Gatsby, the man who gives his name to this book, was exempt from my reaction.　Gatsby, who represented everything for which I have an unaffected scorn. If personality is an unbroken series of successful gestures, then there was something gorgeous about him, some heightened sensitivity to the promises of life, as if he were related to one of those intricate machines that register earthquakes ten thousand miles away. This responsiveness had nothing to do with that flabby impressionability which is dignified under the name of the ‘creative temperament”　it was an extraordinary gift for hope, a romantic readiness such as I have never found in any other person and which it is not likely I shall ever find again.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No— Gatsby turned out all right at the end; it is what preyed on Gatsby, what foul dust floated in the wake of his dreams that temporarily closed out my interest in the abortive sorrows and short-winded elations of men. My family have been prominent, well-to-do people in this Middle Western city for three generations. The Carraways are something of a clan, and we have a tradition that we’re descended from the Dukes of Buccleuch, but the actual founder of my line was my grandfather’s brother, who came here in fifty-one, sent a substitute to the Civil War, and started the wholesale hardware business that my father carries on today. I never saw this great-uncle, but I’m supposed to look like him with special reference to the rather hard-boiled painting that hangs in father’s office. I graduated from New Haven in 1915, just a quarter of a century after my father, and a little later I participated in that delayed Teutonic migration known as the Great War. I enjoyed the counter-raid so thoroughly that I came back restless. Instead of being the warm centre of the world, the Middle West now seemed like the ragged edge of the universe—so I decided to go East and learn the bond business. Everybody I knew was in the bond business, so I supposed it could support one more single man.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語発音の知識</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハツオン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/The Old Man and the Sea/     He was an old man who fished alone in a skiff in the Gulf Stream and he had gone eighty-four days now without taking a fish. In the first forty days a boy had been with him. But after forty days without a fish the boy’s parents had told him that the old man was now definitely and finally salao, which is the worst form of unlucky, and the boy had gone at their orders in another boat which caught three good fish the first week. It made the boy sad to see the old man come in each day with his skiff empty and he always went down to help him carry either the coiled lines or the gaff and harpoon and the sail that was furled around the mast. The sail was patched with flour sacks and, furled, it looked like the flag of permanent defeat. The old man was thin and gaunt with deep wrinkles in the back of his neck. The brown blotches of the benevolent skin cancer the sun brings from its reflection on the tropic sea were on his cheeks. The blotches ran well down the sides of his face and his hands had the deep-creased scars from handling heavy fish on the cords. But none of these scars were fresh. They were as old as erosions in a fishless desert. Everything about him was old except his eyes and they were the same color as the sea and were cheerful and undefeated. Santiago,” the boy said to him as they climbed the bank from where the skiff was hauled up. “I could go with you again. We’ve made some money.” The old man had taught the boy to fish and the boy loved him. “No,” the old man said. “You’re with a lucky boat. Stay with them.” “But remember how you went eighty-seven days without fish and then we caught big ones every day for three weeks.” “I remember,” the old man said. “I know you did not leave me because you doubted.” “It was papa made me leave. I am a boy and I must obey him.” “I know,” the old man said. “It is quite normal.” “He hasn’t much faith.” “No,” the old man said. “But we have. Haven’t we?” ‘Yes,” the boy said. “Can I offer you a beer on the Terrace and then we’ll take the stuff home.” “Why not?” the old man said. “Between fishermen.” They sat on the Terrace and many of the fishermen made fun of the old man and he was not angry. Others, of the older fishermen, looked at him and were sad.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/THE EMPEROR'S NEW CLOTHES/    Many years ago, there was an Emperor, who was so excessively fond of new clothes, that he spent all his money in dress. He did not trouble himself in the least about his soldiers; nor did he care to go either to the theatre or the chase, except for the opportunities then afforded him for displaying his new clothes. He had a different suit for each hour of the day; and as of any other king or emperor, one is accustomed to say, "he is sitting in council," it was always said of him, "The Emperor is sitting in his wardrobe." Time passed merrily in the large town which was his capital; strangers arrived every day at the court. One day, two rogues, calling themselves weavers, made their appearance. They gave out that they knew how to weave stuffs of the most beautiful colors and elaborate patterns, the clothes manufactured from which should have the wonderful property of remaining invisible to everyone who was unfit for the office he held, or who was extraordinarily simple in character. "These must, indeed, be splendid clothes!" thought the Emperor. "Had I such a suit, I might at once find out what men in my realms are unfit for their office, and also be able to distinguish the wise from the foolish! This stuff must be woven for me immediately." And he caused large sums of money to be given to both the weavers in order that they might begin their work directly. So the two pretended weavers set up two looms, and affected to work very busily, though in reality they did nothing at all. They asked for the most delicate silk and the purest gold thread; put both into their own knapsacks; and then continued their pretended work at the empty looms until late at night.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>librivox3.wav</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9180,7 +9247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867070D-72A0-4BC5-9272-F0071B8ECF02}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -9255,7 +9322,7 @@
         <v>1488</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1506</v>
@@ -9290,10 +9357,10 @@
         <v>1489</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>1145</v>
@@ -9325,10 +9392,10 @@
         <v>1490</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>1146</v>
@@ -9360,7 +9427,7 @@
         <v>1491</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>1507</v>
@@ -9395,10 +9462,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>1148</v>
@@ -9430,10 +9497,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>95</v>
@@ -9465,10 +9532,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>103</v>
@@ -9500,7 +9567,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>5</v>
@@ -9535,7 +9602,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>1508</v>
@@ -9570,7 +9637,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>1509</v>
@@ -9605,7 +9672,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>1510</v>
@@ -9640,10 +9707,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>1152</v>
@@ -9675,7 +9742,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>1511</v>
@@ -9710,7 +9777,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>1512</v>
@@ -9745,10 +9812,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>1155</v>
@@ -9780,10 +9847,10 @@
         <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>1156</v>
@@ -9815,10 +9882,10 @@
         <v>48</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>1157</v>
@@ -9850,10 +9917,10 @@
         <v>51</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>1158</v>
@@ -9885,10 +9952,10 @@
         <v>54</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>150</v>
@@ -9920,10 +9987,10 @@
         <v>57</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>1159</v>
@@ -9955,7 +10022,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>1513</v>
@@ -9990,10 +10057,10 @@
         <v>63</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>158</v>
@@ -10025,7 +10092,7 @@
         <v>66</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>1514</v>
@@ -10060,7 +10127,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>1515</v>
@@ -10095,7 +10162,7 @@
         <v>72</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>1516</v>
@@ -10130,7 +10197,7 @@
         <v>75</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>1517</v>
@@ -10165,7 +10232,7 @@
         <v>78</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>1518</v>
@@ -10200,10 +10267,10 @@
         <v>81</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>1164</v>
@@ -10235,7 +10302,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>1519</v>
@@ -10270,7 +10337,7 @@
         <v>87</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>1520</v>
@@ -10305,7 +10372,7 @@
         <v>90</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>1521</v>
@@ -10340,7 +10407,7 @@
         <v>94</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>1522</v>
@@ -10375,7 +10442,7 @@
         <v>99</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>1523</v>
@@ -10410,7 +10477,7 @@
         <v>102</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>1524</v>
@@ -10445,7 +10512,7 @@
         <v>107</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>1525</v>
@@ -10480,7 +10547,7 @@
         <v>110</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>1526</v>
@@ -10515,10 +10582,10 @@
         <v>113</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>1172</v>
@@ -10550,10 +10617,10 @@
         <v>116</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>1173</v>
@@ -10585,7 +10652,7 @@
         <v>120</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>1527</v>
@@ -10620,10 +10687,10 @@
         <v>123</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>1175</v>
@@ -10655,7 +10722,7 @@
         <v>126</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>1528</v>
@@ -10690,7 +10757,7 @@
         <v>130</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>1529</v>
@@ -10725,7 +10792,7 @@
         <v>133</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>1530</v>
@@ -10760,10 +10827,10 @@
         <v>137</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>1071</v>
@@ -10795,10 +10862,10 @@
         <v>140</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>1177</v>
@@ -10830,7 +10897,7 @@
         <v>143</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>1531</v>
@@ -10865,7 +10932,7 @@
         <v>146</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>1532</v>
@@ -10900,10 +10967,10 @@
         <v>149</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>1077</v>
@@ -10935,10 +11002,10 @@
         <v>154</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>1075</v>
@@ -10970,7 +11037,7 @@
         <v>157</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>1533</v>
@@ -11005,7 +11072,7 @@
         <v>162</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>1534</v>
@@ -11040,7 +11107,7 @@
         <v>165</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>1535</v>
@@ -11075,7 +11142,7 @@
         <v>169</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>1536</v>
@@ -11110,10 +11177,10 @@
         <v>172</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>270</v>
@@ -11145,7 +11212,7 @@
         <v>176</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>1537</v>
@@ -11180,10 +11247,10 @@
         <v>180</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>300</v>
@@ -11215,7 +11282,7 @@
         <v>183</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>288</v>
@@ -11250,7 +11317,7 @@
         <v>186</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>288</v>
@@ -11285,7 +11352,7 @@
         <v>189</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>1538</v>
@@ -11320,7 +11387,7 @@
         <v>192</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>1539</v>
@@ -11355,7 +11422,7 @@
         <v>195</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>1540</v>
@@ -11390,7 +11457,7 @@
         <v>198</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>1541</v>
@@ -11425,10 +11492,10 @@
         <v>201</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>280</v>
@@ -11460,7 +11527,7 @@
         <v>204</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>1542</v>
@@ -11495,7 +11562,7 @@
         <v>207</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>1543</v>
@@ -11530,7 +11597,7 @@
         <v>210</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>1544</v>
@@ -11565,7 +11632,7 @@
         <v>213</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>1545</v>
@@ -11600,7 +11667,7 @@
         <v>216</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>1546</v>
@@ -11635,7 +11702,7 @@
         <v>219</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>1547</v>
@@ -11670,7 +11737,7 @@
         <v>222</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>1548</v>
@@ -11705,10 +11772,10 @@
         <v>225</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>490</v>
@@ -11740,10 +11807,10 @@
         <v>230</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>1191</v>
@@ -11775,10 +11842,10 @@
         <v>233</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>1192</v>
@@ -11810,10 +11877,10 @@
         <v>236</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>516</v>
@@ -11845,7 +11912,7 @@
         <v>240</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>1549</v>
@@ -11880,7 +11947,7 @@
         <v>243</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>1550</v>
@@ -11915,7 +11982,7 @@
         <v>246</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>1551</v>
@@ -11950,7 +12017,7 @@
         <v>249</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>1552</v>
@@ -11985,7 +12052,7 @@
         <v>252</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>1553</v>
@@ -12020,7 +12087,7 @@
         <v>255</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>1554</v>
@@ -12055,7 +12122,7 @@
         <v>258</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>1555</v>
@@ -12090,10 +12157,10 @@
         <v>261</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>373</v>
@@ -12125,10 +12192,10 @@
         <v>264</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>368</v>
@@ -12160,10 +12227,10 @@
         <v>269</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>1198</v>
@@ -12195,7 +12262,7 @@
         <v>274</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>1556</v>
@@ -12230,10 +12297,10 @@
         <v>279</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>1200</v>
@@ -12265,7 +12332,7 @@
         <v>284</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>1557</v>
@@ -12300,7 +12367,7 @@
         <v>287</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>1558</v>
@@ -12335,7 +12402,7 @@
         <v>292</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>1559</v>
@@ -12370,7 +12437,7 @@
         <v>295</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>1560</v>
@@ -12405,7 +12472,7 @@
         <v>299</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>1561</v>
@@ -12440,10 +12507,10 @@
         <v>303</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>1204</v>
@@ -12475,7 +12542,7 @@
         <v>307</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>1562</v>
@@ -12510,7 +12577,7 @@
         <v>312</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>1563</v>
@@ -12545,7 +12612,7 @@
         <v>316</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>1564</v>
@@ -12580,7 +12647,7 @@
         <v>319</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>1565</v>
@@ -12615,7 +12682,7 @@
         <v>322</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>1566</v>
@@ -12650,7 +12717,7 @@
         <v>325</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>1567</v>
@@ -12685,7 +12752,7 @@
         <v>328</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>1568</v>
@@ -12720,7 +12787,7 @@
         <v>333</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>1569</v>
@@ -12755,7 +12822,7 @@
         <v>337</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>1570</v>
@@ -12788,7 +12855,7 @@
         <v>341</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>1571</v>
@@ -12821,7 +12888,7 @@
         <v>346</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>1572</v>
@@ -12854,10 +12921,10 @@
         <v>350</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="E105" s="25" t="s">
         <v>576</v>
@@ -12887,10 +12954,10 @@
         <v>354</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="E106" s="25" t="s">
         <v>609</v>
@@ -12920,10 +12987,10 @@
         <v>358</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="E107" s="25" t="s">
         <v>1213</v>
@@ -12953,10 +13020,10 @@
         <v>361</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="E108" s="25" t="s">
         <v>1214</v>
@@ -12986,7 +13053,7 @@
         <v>364</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>1573</v>
@@ -13019,7 +13086,7 @@
         <v>367</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>1574</v>
@@ -13052,10 +13119,10 @@
         <v>372</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="E111" s="25" t="s">
         <v>629</v>
@@ -13085,10 +13152,10 @@
         <v>377</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="E112" s="25" t="s">
         <v>640</v>
@@ -13118,10 +13185,10 @@
         <v>380</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="E113" s="25" t="s">
         <v>1216</v>
@@ -13151,7 +13218,7 @@
         <v>383</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>1575</v>
@@ -13184,10 +13251,10 @@
         <v>386</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="E115" s="25" t="s">
         <v>538</v>
@@ -13217,7 +13284,7 @@
         <v>389</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>1576</v>
@@ -13250,10 +13317,10 @@
         <v>392</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="E117" s="25" t="s">
         <v>1219</v>
@@ -13283,10 +13350,10 @@
         <v>396</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>1220</v>
@@ -13316,10 +13383,10 @@
         <v>400</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="E119" s="25" t="s">
         <v>1221</v>
@@ -13349,13 +13416,13 @@
         <v>405</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>406</v>
@@ -13382,10 +13449,10 @@
         <v>408</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="E121" s="25" t="s">
         <v>1222</v>
@@ -13415,10 +13482,10 @@
         <v>411</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>1223</v>
@@ -13448,7 +13515,7 @@
         <v>414</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>1577</v>
@@ -13481,10 +13548,10 @@
         <v>417</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>1225</v>
@@ -13514,10 +13581,10 @@
         <v>420</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>1226</v>
@@ -13547,10 +13614,10 @@
         <v>423</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>1227</v>
@@ -13580,10 +13647,10 @@
         <v>426</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>649</v>
@@ -13613,10 +13680,10 @@
         <v>431</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E128" s="25" t="s">
         <v>1228</v>
@@ -13646,10 +13713,10 @@
         <v>435</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="E129" s="25" t="s">
         <v>427</v>
@@ -13679,7 +13746,7 @@
         <v>438</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>1578</v>
@@ -13712,10 +13779,10 @@
         <v>442</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="E131" s="25" t="s">
         <v>1230</v>
@@ -13745,10 +13812,10 @@
         <v>445</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="E132" s="25" t="s">
         <v>1648</v>
@@ -13778,10 +13845,10 @@
         <v>449</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="E133" s="25" t="s">
         <v>674</v>
@@ -13811,10 +13878,10 @@
         <v>452</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="E134" s="25" t="s">
         <v>1231</v>
@@ -13844,10 +13911,10 @@
         <v>457</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="E135" s="25" t="s">
         <v>644</v>
@@ -13877,10 +13944,10 @@
         <v>461</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="E136" s="25" t="s">
         <v>1232</v>
@@ -13910,10 +13977,10 @@
         <v>466</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E137" s="25" t="s">
         <v>1233</v>
@@ -13943,10 +14010,10 @@
         <v>469</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="E138" s="25" t="s">
         <v>1234</v>
@@ -13976,10 +14043,10 @@
         <v>473</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="E139" s="25" t="s">
         <v>1235</v>
@@ -14009,10 +14076,10 @@
         <v>477</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="E140" s="25" t="s">
         <v>1236</v>
@@ -14042,10 +14109,10 @@
         <v>480</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="E141" s="25" t="s">
         <v>1237</v>
@@ -14075,7 +14142,7 @@
         <v>483</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>1579</v>
@@ -14108,7 +14175,7 @@
         <v>486</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>1580</v>
@@ -14141,10 +14208,10 @@
         <v>489</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="E144" s="25" t="s">
         <v>1240</v>
@@ -14174,10 +14241,10 @@
         <v>494</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E145" s="25" t="s">
         <v>1082</v>
@@ -14207,10 +14274,10 @@
         <v>497</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E146" s="25" t="s">
         <v>1084</v>
@@ -14240,10 +14307,10 @@
         <v>500</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E147" s="25" t="s">
         <v>1241</v>
@@ -14273,10 +14340,10 @@
         <v>503</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E148" s="25" t="s">
         <v>1242</v>
@@ -14306,10 +14373,10 @@
         <v>506</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="E149" s="25" t="s">
         <v>1243</v>
@@ -14339,10 +14406,10 @@
         <v>509</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="E150" s="25" t="s">
         <v>1244</v>
@@ -14372,10 +14439,10 @@
         <v>512</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="E151" s="25" t="s">
         <v>1245</v>
@@ -14405,10 +14472,10 @@
         <v>515</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="E152" s="25" t="s">
         <v>888</v>
@@ -14438,10 +14505,10 @@
         <v>520</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="E153" s="25" t="s">
         <v>896</v>
@@ -14471,10 +14538,10 @@
         <v>523</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="E154" s="25" t="s">
         <v>1246</v>
@@ -14504,10 +14571,10 @@
         <v>527</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="E155" s="25" t="s">
         <v>1247</v>
@@ -14537,10 +14604,10 @@
         <v>531</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="E156" s="25" t="s">
         <v>1248</v>
@@ -14570,10 +14637,10 @@
         <v>534</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="E157" s="25" t="s">
         <v>1249</v>
@@ -14603,10 +14670,10 @@
         <v>537</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="E158" s="25" t="s">
         <v>1250</v>
@@ -14636,10 +14703,10 @@
         <v>542</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="E159" s="25" t="s">
         <v>1251</v>
@@ -14669,10 +14736,10 @@
         <v>547</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="E160" s="25" t="s">
         <v>1252</v>
@@ -14702,10 +14769,10 @@
         <v>551</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="E161" s="25" t="s">
         <v>708</v>
@@ -14735,10 +14802,10 @@
         <v>554</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="E162" s="25" t="s">
         <v>700</v>
@@ -14768,7 +14835,7 @@
         <v>557</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>1581</v>
@@ -14801,7 +14868,7 @@
         <v>560</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>1582</v>
@@ -14834,10 +14901,10 @@
         <v>563</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="E165" s="25" t="s">
         <v>1255</v>
@@ -14867,7 +14934,7 @@
         <v>566</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>1583</v>
@@ -14900,7 +14967,7 @@
         <v>571</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>1584</v>
@@ -14933,7 +15000,7 @@
         <v>575</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>1585</v>
@@ -14966,7 +15033,7 @@
         <v>580</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>1586</v>
@@ -14999,7 +15066,7 @@
         <v>583</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>1587</v>
@@ -15032,7 +15099,7 @@
         <v>586</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>1588</v>
@@ -15065,7 +15132,7 @@
         <v>589</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>1589</v>
@@ -15098,10 +15165,10 @@
         <v>593</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="E173" s="25" t="s">
         <v>1263</v>
@@ -15131,7 +15198,7 @@
         <v>596</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>1590</v>
@@ -15164,10 +15231,10 @@
         <v>599</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="E175" s="25" t="s">
         <v>1265</v>
@@ -15197,7 +15264,7 @@
         <v>604</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>1591</v>
@@ -15230,10 +15297,10 @@
         <v>608</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="E177" s="25" t="s">
         <v>1267</v>
@@ -15263,7 +15330,7 @@
         <v>613</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D178" s="27" t="s">
         <v>1592</v>
@@ -15296,10 +15363,10 @@
         <v>616</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D179" s="27" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>938</v>
@@ -15329,7 +15396,7 @@
         <v>619</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D180" s="27" t="s">
         <v>1593</v>
@@ -15362,10 +15429,10 @@
         <v>622</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="E181" s="25" t="s">
         <v>1269</v>
@@ -15395,10 +15462,10 @@
         <v>625</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="E182" s="25" t="s">
         <v>1270</v>
@@ -15428,10 +15495,10 @@
         <v>628</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="E183" s="25" t="s">
         <v>1101</v>
@@ -15461,10 +15528,10 @@
         <v>633</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D184" s="27" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="E184" s="25" t="s">
         <v>1271</v>
@@ -15494,10 +15561,10 @@
         <v>636</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="E185" s="25" t="s">
         <v>1272</v>
@@ -15527,10 +15594,10 @@
         <v>639</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D186" s="27" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="E186" s="25" t="s">
         <v>1273</v>
@@ -15560,10 +15627,10 @@
         <v>643</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D187" s="27" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="E187" s="25" t="s">
         <v>1274</v>
@@ -15593,10 +15660,10 @@
         <v>648</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="E188" s="25" t="s">
         <v>1275</v>
@@ -15626,10 +15693,10 @@
         <v>653</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D189" s="27" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="E189" s="25" t="s">
         <v>956</v>
@@ -15659,10 +15726,10 @@
         <v>656</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="E190" s="25" t="s">
         <v>928</v>
@@ -15692,10 +15759,10 @@
         <v>659</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="E191" s="25" t="s">
         <v>947</v>
@@ -15725,7 +15792,7 @@
         <v>663</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D192" s="27" t="s">
         <v>1594</v>
@@ -15758,10 +15825,10 @@
         <v>666</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="E193" s="25" t="s">
         <v>1277</v>
@@ -15791,10 +15858,10 @@
         <v>670</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="E194" s="25" t="s">
         <v>1278</v>
@@ -15824,10 +15891,10 @@
         <v>673</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D195" s="27" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="E195" s="25" t="s">
         <v>1279</v>
@@ -15857,7 +15924,7 @@
         <v>678</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D196" s="27" t="s">
         <v>1595</v>
@@ -15890,7 +15957,7 @@
         <v>681</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D197" s="27" t="s">
         <v>1596</v>
@@ -15923,10 +15990,10 @@
         <v>684</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D198" s="27" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="E198" s="25" t="s">
         <v>1281</v>
@@ -15956,7 +16023,7 @@
         <v>687</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D199" s="27" t="s">
         <v>1597</v>
@@ -15989,10 +16056,10 @@
         <v>690</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="E200" s="25" t="s">
         <v>1282</v>
@@ -16022,7 +16089,7 @@
         <v>693</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D201" s="27" t="s">
         <v>1598</v>
@@ -16055,10 +16122,10 @@
         <v>696</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D202" s="27" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="E202" s="25" t="s">
         <v>1283</v>
@@ -16088,10 +16155,10 @@
         <v>699</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="E203" s="25" t="s">
         <v>1038</v>
@@ -16121,10 +16188,10 @@
         <v>704</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D204" s="27" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="E204" s="25" t="s">
         <v>1284</v>
@@ -16154,10 +16221,10 @@
         <v>707</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D205" s="27" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="E205" s="25" t="s">
         <v>1285</v>
@@ -16187,10 +16254,10 @@
         <v>712</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D206" s="27" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="E206" s="25" t="s">
         <v>1104</v>
@@ -16220,10 +16287,10 @@
         <v>715</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D207" s="27" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="E207" s="25" t="s">
         <v>1106</v>
@@ -16253,10 +16320,10 @@
         <v>718</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D208" s="27" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="E208" s="25" t="s">
         <v>1286</v>
@@ -16286,10 +16353,10 @@
         <v>722</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="E209" s="25" t="s">
         <v>1287</v>
@@ -16319,10 +16386,10 @@
         <v>725</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D210" s="27" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="E210" s="25" t="s">
         <v>1288</v>
@@ -16334,7 +16401,7 @@
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
       <c r="J210" s="6" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="K210" s="6" t="s">
         <v>727</v>
@@ -16352,10 +16419,10 @@
         <v>728</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="E211" s="25" t="s">
         <v>747</v>
@@ -16385,10 +16452,10 @@
         <v>731</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D212" s="27" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="E212" s="25" t="s">
         <v>1289</v>
@@ -16418,10 +16485,10 @@
         <v>734</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D213" s="27" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="E213" s="25" t="s">
         <v>1290</v>
@@ -16433,7 +16500,7 @@
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
       <c r="J213" s="6" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="K213" s="6" t="s">
         <v>736</v>
@@ -16451,7 +16518,7 @@
         <v>737</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D214" s="27" t="s">
         <v>1599</v>
@@ -16484,10 +16551,10 @@
         <v>740</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="E215" s="25" t="s">
         <v>1291</v>
@@ -16517,10 +16584,10 @@
         <v>743</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="E216" s="25" t="s">
         <v>1292</v>
@@ -16550,7 +16617,7 @@
         <v>746</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D217" s="27" t="s">
         <v>1600</v>
@@ -16583,7 +16650,7 @@
         <v>751</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D218" s="27" t="s">
         <v>1601</v>
@@ -16616,7 +16683,7 @@
         <v>754</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D219" s="27" t="s">
         <v>1602</v>
@@ -16649,7 +16716,7 @@
         <v>757</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D220" s="27" t="s">
         <v>1603</v>
@@ -16682,7 +16749,7 @@
         <v>760</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D221" s="27" t="s">
         <v>1604</v>
@@ -16715,7 +16782,7 @@
         <v>763</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D222" s="27" t="s">
         <v>1605</v>
@@ -16748,7 +16815,7 @@
         <v>766</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D223" s="27" t="s">
         <v>1606</v>
@@ -16781,7 +16848,7 @@
         <v>771</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D224" s="27" t="s">
         <v>1607</v>
@@ -16814,10 +16881,10 @@
         <v>774</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D225" s="27" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="E225" s="25" t="s">
         <v>1295</v>
@@ -16847,7 +16914,7 @@
         <v>777</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D226" s="27" t="s">
         <v>1608</v>
@@ -16880,7 +16947,7 @@
         <v>780</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D227" s="27" t="s">
         <v>1609</v>
@@ -16913,10 +16980,10 @@
         <v>783</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D228" s="27" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="E228" s="25" t="s">
         <v>1298</v>
@@ -16946,7 +17013,7 @@
         <v>786</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D229" s="27" t="s">
         <v>1610</v>
@@ -16979,7 +17046,7 @@
         <v>790</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D230" s="27" t="s">
         <v>1611</v>
@@ -17012,7 +17079,7 @@
         <v>795</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D231" s="27" t="s">
         <v>1612</v>
@@ -17045,7 +17112,7 @@
         <v>800</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D232" s="27" t="s">
         <v>1613</v>
@@ -17078,10 +17145,10 @@
         <v>805</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D233" s="27" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="E233" s="25" t="s">
         <v>854</v>
@@ -17111,10 +17178,10 @@
         <v>808</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="E234" s="25" t="s">
         <v>864</v>
@@ -17144,7 +17211,7 @@
         <v>812</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D235" s="27" t="s">
         <v>1614</v>
@@ -17177,7 +17244,7 @@
         <v>817</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D236" s="27" t="s">
         <v>1615</v>
@@ -17210,10 +17277,10 @@
         <v>822</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="E237" s="25" t="s">
         <v>1301</v>
@@ -17243,10 +17310,10 @@
         <v>825</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D238" s="27" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="E238" s="25" t="s">
         <v>876</v>
@@ -17276,7 +17343,7 @@
         <v>830</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D239" s="27" t="s">
         <v>1616</v>
@@ -17309,10 +17376,10 @@
         <v>835</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D240" s="27" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="E240" s="25" t="s">
         <v>1302</v>
@@ -17342,10 +17409,10 @@
         <v>840</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D241" s="27" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="E241" s="25" t="s">
         <v>1303</v>
@@ -17375,10 +17442,10 @@
         <v>845</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D242" s="27" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="E242" s="25" t="s">
         <v>1089</v>
@@ -17408,10 +17475,10 @@
         <v>848</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D243" s="27" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="E243" s="25" t="s">
         <v>1304</v>
@@ -17441,10 +17508,10 @@
         <v>853</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D244" s="27" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="E244" s="25" t="s">
         <v>1305</v>
@@ -17474,10 +17541,10 @@
         <v>858</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D245" s="27" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="E245" s="25" t="s">
         <v>1306</v>
@@ -17507,10 +17574,10 @@
         <v>863</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D246" s="27" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="E246" s="25" t="s">
         <v>1307</v>
@@ -17540,10 +17607,10 @@
         <v>868</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D247" s="27" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="E247" s="25" t="s">
         <v>1308</v>
@@ -17573,10 +17640,10 @@
         <v>872</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D248" s="27" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="E248" s="25" t="s">
         <v>1309</v>
@@ -17606,7 +17673,7 @@
         <v>875</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D249" s="27" t="s">
         <v>1617</v>
@@ -17639,10 +17706,10 @@
         <v>880</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D250" s="27" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="E250" s="25" t="s">
         <v>1311</v>
@@ -17672,10 +17739,10 @@
         <v>884</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D251" s="27" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="E251" s="25" t="s">
         <v>1312</v>
@@ -17705,7 +17772,7 @@
         <v>887</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D252" s="27" t="s">
         <v>1618</v>
@@ -17738,7 +17805,7 @@
         <v>892</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D253" s="27" t="s">
         <v>1619</v>
@@ -17771,7 +17838,7 @@
         <v>895</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D254" s="27" t="s">
         <v>1620</v>
@@ -17804,10 +17871,10 @@
         <v>900</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="E255" s="25" t="s">
         <v>1316</v>
@@ -17837,10 +17904,10 @@
         <v>904</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D256" s="27" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="E256" s="25" t="s">
         <v>1317</v>
@@ -17870,7 +17937,7 @@
         <v>907</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D257" s="27" t="s">
         <v>1621</v>
@@ -17903,10 +17970,10 @@
         <v>911</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D258" s="27" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="E258" s="25" t="s">
         <v>1318</v>
@@ -17936,10 +18003,10 @@
         <v>914</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D259" s="27" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="E259" s="25" t="s">
         <v>1319</v>
@@ -17969,10 +18036,10 @@
         <v>918</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="E260" s="25" t="s">
         <v>1320</v>
@@ -18002,10 +18069,10 @@
         <v>921</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D261" s="27" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="E261" s="25" t="s">
         <v>1112</v>
@@ -18035,10 +18102,10 @@
         <v>924</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D262" s="27" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="E262" s="25" t="s">
         <v>1321</v>
@@ -18068,10 +18135,10 @@
         <v>927</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D263" s="27" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="E263" s="25" t="s">
         <v>1322</v>
@@ -18101,10 +18168,10 @@
         <v>932</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D264" s="27" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="E264" s="25" t="s">
         <v>1323</v>
@@ -18134,10 +18201,10 @@
         <v>937</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D265" s="27" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="E265" s="25" t="s">
         <v>1324</v>
@@ -18167,10 +18234,10 @@
         <v>942</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D266" s="27" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="E266" s="25" t="s">
         <v>1325</v>
@@ -18200,10 +18267,10 @@
         <v>946</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D267" s="27" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="E267" s="25" t="s">
         <v>1326</v>
@@ -18233,10 +18300,10 @@
         <v>951</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D268" s="27" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="E268" s="25" t="s">
         <v>1114</v>
@@ -18266,7 +18333,7 @@
         <v>955</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D269" s="27" t="s">
         <v>1622</v>
@@ -18299,7 +18366,7 @@
         <v>960</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D270" s="27" t="s">
         <v>1623</v>
@@ -18332,7 +18399,7 @@
         <v>964</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D271" s="27" t="s">
         <v>1624</v>
@@ -18365,7 +18432,7 @@
         <v>967</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D272" s="27" t="s">
         <v>1625</v>
@@ -18398,10 +18465,10 @@
         <v>970</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D273" s="27" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="E273" s="25" t="s">
         <v>1099</v>
@@ -18431,7 +18498,7 @@
         <v>973</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D274" s="27" t="s">
         <v>1626</v>
@@ -18464,10 +18531,10 @@
         <v>976</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D275" s="27" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="E275" s="25" t="s">
         <v>1116</v>
@@ -18497,7 +18564,7 @@
         <v>979</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D276" s="27" t="s">
         <v>1627</v>
@@ -18530,10 +18597,10 @@
         <v>982</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D277" s="27" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="E277" s="25" t="s">
         <v>1330</v>
@@ -18563,7 +18630,7 @@
         <v>987</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D278" s="27" t="s">
         <v>1628</v>
@@ -18596,10 +18663,10 @@
         <v>990</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D279" s="27" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="E279" s="25" t="s">
         <v>1122</v>
@@ -18629,10 +18696,10 @@
         <v>993</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D280" s="27" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="E280" s="25" t="s">
         <v>1124</v>
@@ -18662,10 +18729,10 @@
         <v>997</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D281" s="27" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="E281" s="25" t="s">
         <v>1120</v>
@@ -18695,7 +18762,7 @@
         <v>1000</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D282" s="27" t="s">
         <v>1629</v>
@@ -18728,10 +18795,10 @@
         <v>1003</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D283" s="27" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="E283" s="25" t="s">
         <v>1333</v>
@@ -18761,7 +18828,7 @@
         <v>1006</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D284" s="27" t="s">
         <v>1630</v>
@@ -18794,7 +18861,7 @@
         <v>1010</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D285" s="27" t="s">
         <v>1631</v>
@@ -18827,7 +18894,7 @@
         <v>1013</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D286" s="27" t="s">
         <v>1632</v>
@@ -18860,7 +18927,7 @@
         <v>1018</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D287" s="27" t="s">
         <v>1633</v>
@@ -18893,7 +18960,7 @@
         <v>1022</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D288" s="27" t="s">
         <v>1634</v>
@@ -18926,7 +18993,7 @@
         <v>1025</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D289" s="27" t="s">
         <v>1635</v>
@@ -18959,7 +19026,7 @@
         <v>1028</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D290" s="27" t="s">
         <v>1636</v>
@@ -18992,7 +19059,7 @@
         <v>1031</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D291" s="27" t="s">
         <v>1637</v>
@@ -19025,7 +19092,7 @@
         <v>1034</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D292" s="7" t="s">
         <v>1638</v>
@@ -19058,7 +19125,7 @@
         <v>1037</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D293" s="7" t="s">
         <v>1639</v>
@@ -19091,7 +19158,7 @@
         <v>1042</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D294" s="7" t="s">
         <v>1640</v>
@@ -19124,7 +19191,7 @@
         <v>1045</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D295" s="7" t="s">
         <v>1641</v>
@@ -19157,7 +19224,7 @@
         <v>1048</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D296" s="7" t="s">
         <v>1642</v>
@@ -19190,7 +19257,7 @@
         <v>1051</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D297" s="7" t="s">
         <v>1643</v>
@@ -19223,7 +19290,7 @@
         <v>1054</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D298" s="7" t="s">
         <v>1644</v>
@@ -19256,7 +19323,7 @@
         <v>1057</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D299" s="7" t="s">
         <v>1645</v>
@@ -19289,7 +19356,7 @@
         <v>1060</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D300" s="7" t="s">
         <v>1646</v>
@@ -19323,17 +19390,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28100390-BAFB-4528-B64C-8FB8AFC2AD36}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="4.3984375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="67.796875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="53.69921875" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.296875" style="9" customWidth="1"/>
     <col min="5" max="5" width="44.59765625" style="24" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
@@ -19400,10 +19467,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1652</v>
+        <v>1831</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1656</v>
+        <v>1824</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="23" t="s">
@@ -19429,17 +19496,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1657</v>
+        <v>1823</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1824</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="23" t="s">
-        <v>1654</v>
+        <v>1832</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1655</v>
+        <v>1827</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -19449,7 +19516,115 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
-      <c r="O3" s="8">
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="23" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="23" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="23" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="23" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="8">
         <v>1</v>
       </c>
     </row>

--- a/static/SancomContents.xlsx
+++ b/static/SancomContents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oz5ja\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8624FD9A-C823-4132-B9E0-992FC50FDD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C5BC2B-C6CD-4006-9DAF-75FADAA72A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="336" windowWidth="22812" windowHeight="12024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="168" windowWidth="19128" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -5827,16 +5827,6 @@
     <phoneticPr fontId="15"/>
   </si>
   <si>
-    <t>すみません、おっしゃっている意味がよく分かりません</t>
-    <rPh sb="14" eb="16">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
     <t>つまりこういうことです、…</t>
     <phoneticPr fontId="15"/>
   </si>
@@ -8620,6 +8610,16 @@
   <si>
     <t>librivox3.wav</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すみません、おっしゃる意味がよく分かりません</t>
+    <rPh sb="11" eb="13">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
@@ -9247,8 +9247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867070D-72A0-4BC5-9272-F0071B8ECF02}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18"/>
@@ -9322,7 +9322,7 @@
         <v>1488</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1506</v>
@@ -9357,10 +9357,10 @@
         <v>1489</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>1145</v>
@@ -9392,10 +9392,10 @@
         <v>1490</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>1146</v>
@@ -9427,7 +9427,7 @@
         <v>1491</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>1507</v>
@@ -9462,10 +9462,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>1148</v>
@@ -9497,10 +9497,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>95</v>
@@ -9532,10 +9532,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>103</v>
@@ -9567,7 +9567,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>5</v>
@@ -9602,7 +9602,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>1508</v>
@@ -9637,7 +9637,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>1509</v>
@@ -9672,7 +9672,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>1510</v>
@@ -9707,10 +9707,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>1152</v>
@@ -9742,7 +9742,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>1511</v>
@@ -9777,7 +9777,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>1512</v>
@@ -9812,10 +9812,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>1155</v>
@@ -9847,10 +9847,10 @@
         <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>1156</v>
@@ -9882,10 +9882,10 @@
         <v>48</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>1157</v>
@@ -9917,10 +9917,10 @@
         <v>51</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>1158</v>
@@ -9952,10 +9952,10 @@
         <v>54</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>150</v>
@@ -9987,10 +9987,10 @@
         <v>57</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>1159</v>
@@ -10022,7 +10022,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>1513</v>
@@ -10057,10 +10057,10 @@
         <v>63</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>158</v>
@@ -10092,7 +10092,7 @@
         <v>66</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>1514</v>
@@ -10127,7 +10127,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>1515</v>
@@ -10162,7 +10162,7 @@
         <v>72</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>1516</v>
@@ -10197,7 +10197,7 @@
         <v>75</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>1517</v>
@@ -10232,7 +10232,7 @@
         <v>78</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>1518</v>
@@ -10267,10 +10267,10 @@
         <v>81</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>1164</v>
@@ -10302,7 +10302,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>1519</v>
@@ -10337,7 +10337,7 @@
         <v>87</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>1520</v>
@@ -10372,7 +10372,7 @@
         <v>90</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>1521</v>
@@ -10407,7 +10407,7 @@
         <v>94</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>1522</v>
@@ -10442,7 +10442,7 @@
         <v>99</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>1523</v>
@@ -10477,7 +10477,7 @@
         <v>102</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>1524</v>
@@ -10512,7 +10512,7 @@
         <v>107</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>1525</v>
@@ -10547,7 +10547,7 @@
         <v>110</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>1526</v>
@@ -10582,10 +10582,10 @@
         <v>113</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>1172</v>
@@ -10617,10 +10617,10 @@
         <v>116</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>1173</v>
@@ -10652,7 +10652,7 @@
         <v>120</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>1527</v>
@@ -10687,10 +10687,10 @@
         <v>123</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>1175</v>
@@ -10722,7 +10722,7 @@
         <v>126</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>1528</v>
@@ -10757,7 +10757,7 @@
         <v>130</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>1529</v>
@@ -10792,7 +10792,7 @@
         <v>133</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>1530</v>
@@ -10827,10 +10827,10 @@
         <v>137</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>1071</v>
@@ -10862,10 +10862,10 @@
         <v>140</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>1177</v>
@@ -10897,7 +10897,7 @@
         <v>143</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>1531</v>
@@ -10932,7 +10932,7 @@
         <v>146</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>1532</v>
@@ -10967,10 +10967,10 @@
         <v>149</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>1077</v>
@@ -11002,10 +11002,10 @@
         <v>154</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>1075</v>
@@ -11037,7 +11037,7 @@
         <v>157</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>1533</v>
@@ -11072,7 +11072,7 @@
         <v>162</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>1534</v>
@@ -11107,7 +11107,7 @@
         <v>165</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>1535</v>
@@ -11142,7 +11142,7 @@
         <v>169</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>1536</v>
@@ -11177,10 +11177,10 @@
         <v>172</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>270</v>
@@ -11212,7 +11212,7 @@
         <v>176</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>1537</v>
@@ -11247,10 +11247,10 @@
         <v>180</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>300</v>
@@ -11282,7 +11282,7 @@
         <v>183</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>288</v>
@@ -11317,7 +11317,7 @@
         <v>186</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>288</v>
@@ -11352,7 +11352,7 @@
         <v>189</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>1538</v>
@@ -11387,7 +11387,7 @@
         <v>192</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>1539</v>
@@ -11422,7 +11422,7 @@
         <v>195</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>1540</v>
@@ -11457,7 +11457,7 @@
         <v>198</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>1541</v>
@@ -11492,10 +11492,10 @@
         <v>201</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>280</v>
@@ -11527,7 +11527,7 @@
         <v>204</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>1542</v>
@@ -11562,7 +11562,7 @@
         <v>207</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>1543</v>
@@ -11597,7 +11597,7 @@
         <v>210</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>1544</v>
@@ -11632,7 +11632,7 @@
         <v>213</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>1545</v>
@@ -11667,7 +11667,7 @@
         <v>216</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>1546</v>
@@ -11702,7 +11702,7 @@
         <v>219</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>1547</v>
@@ -11737,7 +11737,7 @@
         <v>222</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>1548</v>
@@ -11772,10 +11772,10 @@
         <v>225</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>490</v>
@@ -11807,10 +11807,10 @@
         <v>230</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>1191</v>
@@ -11842,10 +11842,10 @@
         <v>233</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>1192</v>
@@ -11877,10 +11877,10 @@
         <v>236</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>516</v>
@@ -11912,7 +11912,7 @@
         <v>240</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>1549</v>
@@ -11947,7 +11947,7 @@
         <v>243</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>1550</v>
@@ -11982,7 +11982,7 @@
         <v>246</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>1551</v>
@@ -12017,7 +12017,7 @@
         <v>249</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>1552</v>
@@ -12052,7 +12052,7 @@
         <v>252</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>1553</v>
@@ -12087,7 +12087,7 @@
         <v>255</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>1554</v>
@@ -12122,7 +12122,7 @@
         <v>258</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>1555</v>
@@ -12157,10 +12157,10 @@
         <v>261</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>373</v>
@@ -12192,10 +12192,10 @@
         <v>264</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>368</v>
@@ -12227,10 +12227,10 @@
         <v>269</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>1198</v>
@@ -12262,7 +12262,7 @@
         <v>274</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>1556</v>
@@ -12297,10 +12297,10 @@
         <v>279</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>1200</v>
@@ -12332,7 +12332,7 @@
         <v>284</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>1557</v>
@@ -12367,7 +12367,7 @@
         <v>287</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>1558</v>
@@ -12402,7 +12402,7 @@
         <v>292</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>1559</v>
@@ -12437,7 +12437,7 @@
         <v>295</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>1560</v>
@@ -12472,7 +12472,7 @@
         <v>299</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>1561</v>
@@ -12507,10 +12507,10 @@
         <v>303</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>1204</v>
@@ -12542,7 +12542,7 @@
         <v>307</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>1562</v>
@@ -12577,7 +12577,7 @@
         <v>312</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>1563</v>
@@ -12612,7 +12612,7 @@
         <v>316</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>1564</v>
@@ -12647,7 +12647,7 @@
         <v>319</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>1565</v>
@@ -12682,7 +12682,7 @@
         <v>322</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>1566</v>
@@ -12717,7 +12717,7 @@
         <v>325</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>1567</v>
@@ -12752,7 +12752,7 @@
         <v>328</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>1568</v>
@@ -12787,7 +12787,7 @@
         <v>333</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>1569</v>
@@ -12822,7 +12822,7 @@
         <v>337</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>1570</v>
@@ -12855,7 +12855,7 @@
         <v>341</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>1571</v>
@@ -12888,7 +12888,7 @@
         <v>346</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>1572</v>
@@ -12921,10 +12921,10 @@
         <v>350</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E105" s="25" t="s">
         <v>576</v>
@@ -12954,10 +12954,10 @@
         <v>354</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E106" s="25" t="s">
         <v>609</v>
@@ -12987,10 +12987,10 @@
         <v>358</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E107" s="25" t="s">
         <v>1213</v>
@@ -13020,10 +13020,10 @@
         <v>361</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E108" s="25" t="s">
         <v>1214</v>
@@ -13053,7 +13053,7 @@
         <v>364</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>1573</v>
@@ -13086,7 +13086,7 @@
         <v>367</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>1574</v>
@@ -13119,10 +13119,10 @@
         <v>372</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E111" s="25" t="s">
         <v>629</v>
@@ -13152,10 +13152,10 @@
         <v>377</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E112" s="25" t="s">
         <v>640</v>
@@ -13185,10 +13185,10 @@
         <v>380</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E113" s="25" t="s">
         <v>1216</v>
@@ -13218,7 +13218,7 @@
         <v>383</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>1575</v>
@@ -13251,10 +13251,10 @@
         <v>386</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E115" s="25" t="s">
         <v>538</v>
@@ -13284,7 +13284,7 @@
         <v>389</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>1576</v>
@@ -13317,10 +13317,10 @@
         <v>392</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E117" s="25" t="s">
         <v>1219</v>
@@ -13350,10 +13350,10 @@
         <v>396</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>1220</v>
@@ -13383,10 +13383,10 @@
         <v>400</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E119" s="25" t="s">
         <v>1221</v>
@@ -13416,13 +13416,13 @@
         <v>405</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>406</v>
@@ -13431,7 +13431,7 @@
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
       <c r="J120" s="6" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="K120" s="6" t="s">
         <v>407</v>
@@ -13449,10 +13449,10 @@
         <v>408</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E121" s="25" t="s">
         <v>1222</v>
@@ -13482,10 +13482,10 @@
         <v>411</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>1223</v>
@@ -13515,7 +13515,7 @@
         <v>414</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>1577</v>
@@ -13548,10 +13548,10 @@
         <v>417</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>1225</v>
@@ -13581,10 +13581,10 @@
         <v>420</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>1226</v>
@@ -13614,10 +13614,10 @@
         <v>423</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>1227</v>
@@ -13647,10 +13647,10 @@
         <v>426</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>649</v>
@@ -13680,10 +13680,10 @@
         <v>431</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E128" s="25" t="s">
         <v>1228</v>
@@ -13713,10 +13713,10 @@
         <v>435</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E129" s="25" t="s">
         <v>427</v>
@@ -13746,7 +13746,7 @@
         <v>438</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>1578</v>
@@ -13779,10 +13779,10 @@
         <v>442</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E131" s="25" t="s">
         <v>1230</v>
@@ -13812,13 +13812,13 @@
         <v>445</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>447</v>
@@ -13845,10 +13845,10 @@
         <v>449</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E133" s="25" t="s">
         <v>674</v>
@@ -13878,10 +13878,10 @@
         <v>452</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E134" s="25" t="s">
         <v>1231</v>
@@ -13911,10 +13911,10 @@
         <v>457</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E135" s="25" t="s">
         <v>644</v>
@@ -13944,10 +13944,10 @@
         <v>461</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E136" s="25" t="s">
         <v>1232</v>
@@ -13977,10 +13977,10 @@
         <v>466</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E137" s="25" t="s">
         <v>1233</v>
@@ -14010,10 +14010,10 @@
         <v>469</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E138" s="25" t="s">
         <v>1234</v>
@@ -14043,10 +14043,10 @@
         <v>473</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E139" s="25" t="s">
         <v>1235</v>
@@ -14076,10 +14076,10 @@
         <v>477</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E140" s="25" t="s">
         <v>1236</v>
@@ -14109,10 +14109,10 @@
         <v>480</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E141" s="25" t="s">
         <v>1237</v>
@@ -14142,7 +14142,7 @@
         <v>483</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>1579</v>
@@ -14175,7 +14175,7 @@
         <v>486</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>1580</v>
@@ -14208,10 +14208,10 @@
         <v>489</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E144" s="25" t="s">
         <v>1240</v>
@@ -14241,10 +14241,10 @@
         <v>494</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E145" s="25" t="s">
         <v>1082</v>
@@ -14274,10 +14274,10 @@
         <v>497</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E146" s="25" t="s">
         <v>1084</v>
@@ -14307,10 +14307,10 @@
         <v>500</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E147" s="25" t="s">
         <v>1241</v>
@@ -14340,10 +14340,10 @@
         <v>503</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E148" s="25" t="s">
         <v>1242</v>
@@ -14373,10 +14373,10 @@
         <v>506</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E149" s="25" t="s">
         <v>1243</v>
@@ -14406,10 +14406,10 @@
         <v>509</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E150" s="25" t="s">
         <v>1244</v>
@@ -14439,10 +14439,10 @@
         <v>512</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E151" s="25" t="s">
         <v>1245</v>
@@ -14472,10 +14472,10 @@
         <v>515</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E152" s="25" t="s">
         <v>888</v>
@@ -14505,10 +14505,10 @@
         <v>520</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E153" s="25" t="s">
         <v>896</v>
@@ -14538,10 +14538,10 @@
         <v>523</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E154" s="25" t="s">
         <v>1246</v>
@@ -14571,10 +14571,10 @@
         <v>527</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E155" s="25" t="s">
         <v>1247</v>
@@ -14604,10 +14604,10 @@
         <v>531</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E156" s="25" t="s">
         <v>1248</v>
@@ -14637,10 +14637,10 @@
         <v>534</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E157" s="25" t="s">
         <v>1249</v>
@@ -14670,10 +14670,10 @@
         <v>537</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E158" s="25" t="s">
         <v>1250</v>
@@ -14703,10 +14703,10 @@
         <v>542</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E159" s="25" t="s">
         <v>1251</v>
@@ -14736,10 +14736,10 @@
         <v>547</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E160" s="25" t="s">
         <v>1252</v>
@@ -14769,10 +14769,10 @@
         <v>551</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E161" s="25" t="s">
         <v>708</v>
@@ -14802,10 +14802,10 @@
         <v>554</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E162" s="25" t="s">
         <v>700</v>
@@ -14835,7 +14835,7 @@
         <v>557</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>1581</v>
@@ -14868,7 +14868,7 @@
         <v>560</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>1582</v>
@@ -14901,10 +14901,10 @@
         <v>563</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E165" s="25" t="s">
         <v>1255</v>
@@ -14934,7 +14934,7 @@
         <v>566</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>1583</v>
@@ -14967,7 +14967,7 @@
         <v>571</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>1584</v>
@@ -15000,7 +15000,7 @@
         <v>575</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>1585</v>
@@ -15033,7 +15033,7 @@
         <v>580</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>1586</v>
@@ -15066,7 +15066,7 @@
         <v>583</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>1587</v>
@@ -15099,7 +15099,7 @@
         <v>586</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>1588</v>
@@ -15132,7 +15132,7 @@
         <v>589</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>1589</v>
@@ -15165,10 +15165,10 @@
         <v>593</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E173" s="25" t="s">
         <v>1263</v>
@@ -15198,7 +15198,7 @@
         <v>596</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>1590</v>
@@ -15231,10 +15231,10 @@
         <v>599</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E175" s="25" t="s">
         <v>1265</v>
@@ -15264,7 +15264,7 @@
         <v>604</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>1591</v>
@@ -15297,10 +15297,10 @@
         <v>608</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E177" s="25" t="s">
         <v>1267</v>
@@ -15330,7 +15330,7 @@
         <v>613</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D178" s="27" t="s">
         <v>1592</v>
@@ -15363,10 +15363,10 @@
         <v>616</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D179" s="27" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>938</v>
@@ -15396,7 +15396,7 @@
         <v>619</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D180" s="27" t="s">
         <v>1593</v>
@@ -15429,10 +15429,10 @@
         <v>622</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E181" s="25" t="s">
         <v>1269</v>
@@ -15462,10 +15462,10 @@
         <v>625</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E182" s="25" t="s">
         <v>1270</v>
@@ -15495,10 +15495,10 @@
         <v>628</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E183" s="25" t="s">
         <v>1101</v>
@@ -15528,10 +15528,10 @@
         <v>633</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D184" s="27" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E184" s="25" t="s">
         <v>1271</v>
@@ -15561,10 +15561,10 @@
         <v>636</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E185" s="25" t="s">
         <v>1272</v>
@@ -15594,10 +15594,10 @@
         <v>639</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D186" s="27" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E186" s="25" t="s">
         <v>1273</v>
@@ -15627,10 +15627,10 @@
         <v>643</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D187" s="27" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E187" s="25" t="s">
         <v>1274</v>
@@ -15660,10 +15660,10 @@
         <v>648</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E188" s="25" t="s">
         <v>1275</v>
@@ -15693,10 +15693,10 @@
         <v>653</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D189" s="27" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E189" s="25" t="s">
         <v>956</v>
@@ -15726,10 +15726,10 @@
         <v>656</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E190" s="25" t="s">
         <v>928</v>
@@ -15759,10 +15759,10 @@
         <v>659</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E191" s="25" t="s">
         <v>947</v>
@@ -15792,7 +15792,7 @@
         <v>663</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D192" s="27" t="s">
         <v>1594</v>
@@ -15825,10 +15825,10 @@
         <v>666</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E193" s="25" t="s">
         <v>1277</v>
@@ -15858,10 +15858,10 @@
         <v>670</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E194" s="25" t="s">
         <v>1278</v>
@@ -15891,10 +15891,10 @@
         <v>673</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D195" s="27" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E195" s="25" t="s">
         <v>1279</v>
@@ -15924,7 +15924,7 @@
         <v>678</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D196" s="27" t="s">
         <v>1595</v>
@@ -15957,7 +15957,7 @@
         <v>681</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D197" s="27" t="s">
         <v>1596</v>
@@ -15990,10 +15990,10 @@
         <v>684</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D198" s="27" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E198" s="25" t="s">
         <v>1281</v>
@@ -16023,7 +16023,7 @@
         <v>687</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D199" s="27" t="s">
         <v>1597</v>
@@ -16056,10 +16056,10 @@
         <v>690</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E200" s="25" t="s">
         <v>1282</v>
@@ -16089,7 +16089,7 @@
         <v>693</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D201" s="27" t="s">
         <v>1598</v>
@@ -16122,10 +16122,10 @@
         <v>696</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D202" s="27" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E202" s="25" t="s">
         <v>1283</v>
@@ -16155,10 +16155,10 @@
         <v>699</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E203" s="25" t="s">
         <v>1038</v>
@@ -16188,10 +16188,10 @@
         <v>704</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D204" s="27" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E204" s="25" t="s">
         <v>1284</v>
@@ -16221,10 +16221,10 @@
         <v>707</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D205" s="27" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E205" s="25" t="s">
         <v>1285</v>
@@ -16254,10 +16254,10 @@
         <v>712</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D206" s="27" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E206" s="25" t="s">
         <v>1104</v>
@@ -16287,10 +16287,10 @@
         <v>715</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D207" s="27" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E207" s="25" t="s">
         <v>1106</v>
@@ -16320,10 +16320,10 @@
         <v>718</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D208" s="27" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E208" s="25" t="s">
         <v>1286</v>
@@ -16353,10 +16353,10 @@
         <v>722</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E209" s="25" t="s">
         <v>1287</v>
@@ -16386,10 +16386,10 @@
         <v>725</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D210" s="27" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E210" s="25" t="s">
         <v>1288</v>
@@ -16401,7 +16401,7 @@
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
       <c r="J210" s="6" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="K210" s="6" t="s">
         <v>727</v>
@@ -16419,10 +16419,10 @@
         <v>728</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E211" s="25" t="s">
         <v>747</v>
@@ -16452,10 +16452,10 @@
         <v>731</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D212" s="27" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E212" s="25" t="s">
         <v>1289</v>
@@ -16485,10 +16485,10 @@
         <v>734</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D213" s="27" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E213" s="25" t="s">
         <v>1290</v>
@@ -16500,7 +16500,7 @@
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
       <c r="J213" s="6" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="K213" s="6" t="s">
         <v>736</v>
@@ -16518,7 +16518,7 @@
         <v>737</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D214" s="27" t="s">
         <v>1599</v>
@@ -16551,10 +16551,10 @@
         <v>740</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E215" s="25" t="s">
         <v>1291</v>
@@ -16584,10 +16584,10 @@
         <v>743</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E216" s="25" t="s">
         <v>1292</v>
@@ -16617,7 +16617,7 @@
         <v>746</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D217" s="27" t="s">
         <v>1600</v>
@@ -16650,10 +16650,10 @@
         <v>751</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D218" s="27" t="s">
-        <v>1601</v>
+        <v>1834</v>
       </c>
       <c r="E218" s="25" t="s">
         <v>826</v>
@@ -16683,10 +16683,10 @@
         <v>754</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D219" s="27" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E219" s="25" t="s">
         <v>841</v>
@@ -16716,10 +16716,10 @@
         <v>757</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D220" s="27" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E220" s="25" t="s">
         <v>1293</v>
@@ -16749,10 +16749,10 @@
         <v>760</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E221" s="25" t="s">
         <v>796</v>
@@ -16782,10 +16782,10 @@
         <v>763</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D222" s="27" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E222" s="25" t="s">
         <v>1294</v>
@@ -16815,10 +16815,10 @@
         <v>766</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D223" s="27" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E223" s="25" t="s">
         <v>859</v>
@@ -16848,10 +16848,10 @@
         <v>771</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D224" s="27" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E224" s="25" t="s">
         <v>849</v>
@@ -16881,10 +16881,10 @@
         <v>774</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D225" s="27" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E225" s="25" t="s">
         <v>1295</v>
@@ -16914,10 +16914,10 @@
         <v>777</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E226" s="25" t="s">
         <v>1296</v>
@@ -16947,10 +16947,10 @@
         <v>780</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D227" s="27" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E227" s="25" t="s">
         <v>1297</v>
@@ -16980,10 +16980,10 @@
         <v>783</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D228" s="27" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E228" s="25" t="s">
         <v>1298</v>
@@ -17013,10 +17013,10 @@
         <v>786</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D229" s="27" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E229" s="25" t="s">
         <v>791</v>
@@ -17046,10 +17046,10 @@
         <v>790</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D230" s="27" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E230" s="25" t="s">
         <v>1299</v>
@@ -17079,10 +17079,10 @@
         <v>795</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E231" s="25" t="s">
         <v>818</v>
@@ -17112,10 +17112,10 @@
         <v>800</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D232" s="27" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E232" s="25" t="s">
         <v>836</v>
@@ -17145,10 +17145,10 @@
         <v>805</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D233" s="27" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="E233" s="25" t="s">
         <v>854</v>
@@ -17178,10 +17178,10 @@
         <v>808</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E234" s="25" t="s">
         <v>864</v>
@@ -17211,10 +17211,10 @@
         <v>812</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D235" s="27" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E235" s="25" t="s">
         <v>813</v>
@@ -17244,10 +17244,10 @@
         <v>817</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D236" s="27" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E236" s="25" t="s">
         <v>1300</v>
@@ -17277,10 +17277,10 @@
         <v>822</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E237" s="25" t="s">
         <v>1301</v>
@@ -17310,10 +17310,10 @@
         <v>825</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D238" s="27" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E238" s="25" t="s">
         <v>876</v>
@@ -17343,10 +17343,10 @@
         <v>830</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D239" s="27" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E239" s="25" t="s">
         <v>801</v>
@@ -17376,10 +17376,10 @@
         <v>835</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D240" s="27" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E240" s="25" t="s">
         <v>1302</v>
@@ -17409,10 +17409,10 @@
         <v>840</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D241" s="27" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E241" s="25" t="s">
         <v>1303</v>
@@ -17442,10 +17442,10 @@
         <v>845</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D242" s="27" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E242" s="25" t="s">
         <v>1089</v>
@@ -17475,10 +17475,10 @@
         <v>848</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D243" s="27" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E243" s="25" t="s">
         <v>1304</v>
@@ -17508,10 +17508,10 @@
         <v>853</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D244" s="27" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E244" s="25" t="s">
         <v>1305</v>
@@ -17541,10 +17541,10 @@
         <v>858</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D245" s="27" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E245" s="25" t="s">
         <v>1306</v>
@@ -17574,10 +17574,10 @@
         <v>863</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D246" s="27" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E246" s="25" t="s">
         <v>1307</v>
@@ -17607,10 +17607,10 @@
         <v>868</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D247" s="27" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E247" s="25" t="s">
         <v>1308</v>
@@ -17640,10 +17640,10 @@
         <v>872</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D248" s="27" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E248" s="25" t="s">
         <v>1309</v>
@@ -17673,10 +17673,10 @@
         <v>875</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D249" s="27" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E249" s="25" t="s">
         <v>1310</v>
@@ -17706,10 +17706,10 @@
         <v>880</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D250" s="27" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E250" s="25" t="s">
         <v>1311</v>
@@ -17739,10 +17739,10 @@
         <v>884</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D251" s="27" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E251" s="25" t="s">
         <v>1312</v>
@@ -17772,10 +17772,10 @@
         <v>887</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D252" s="27" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E252" s="25" t="s">
         <v>1313</v>
@@ -17805,10 +17805,10 @@
         <v>892</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D253" s="27" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E253" s="25" t="s">
         <v>1314</v>
@@ -17838,10 +17838,10 @@
         <v>895</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D254" s="27" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E254" s="25" t="s">
         <v>1315</v>
@@ -17871,10 +17871,10 @@
         <v>900</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E255" s="25" t="s">
         <v>1316</v>
@@ -17904,10 +17904,10 @@
         <v>904</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D256" s="27" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E256" s="25" t="s">
         <v>1317</v>
@@ -17937,10 +17937,10 @@
         <v>907</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D257" s="27" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E257" s="25" t="s">
         <v>1109</v>
@@ -17970,10 +17970,10 @@
         <v>911</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D258" s="27" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E258" s="25" t="s">
         <v>1318</v>
@@ -18003,10 +18003,10 @@
         <v>914</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D259" s="27" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E259" s="25" t="s">
         <v>1319</v>
@@ -18036,10 +18036,10 @@
         <v>918</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E260" s="25" t="s">
         <v>1320</v>
@@ -18069,10 +18069,10 @@
         <v>921</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D261" s="27" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E261" s="25" t="s">
         <v>1112</v>
@@ -18102,10 +18102,10 @@
         <v>924</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D262" s="27" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E262" s="25" t="s">
         <v>1321</v>
@@ -18135,10 +18135,10 @@
         <v>927</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D263" s="27" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E263" s="25" t="s">
         <v>1322</v>
@@ -18168,10 +18168,10 @@
         <v>932</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D264" s="27" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E264" s="25" t="s">
         <v>1323</v>
@@ -18201,10 +18201,10 @@
         <v>937</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D265" s="27" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E265" s="25" t="s">
         <v>1324</v>
@@ -18234,10 +18234,10 @@
         <v>942</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D266" s="27" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E266" s="25" t="s">
         <v>1325</v>
@@ -18267,10 +18267,10 @@
         <v>946</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D267" s="27" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E267" s="25" t="s">
         <v>1326</v>
@@ -18300,10 +18300,10 @@
         <v>951</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D268" s="27" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E268" s="25" t="s">
         <v>1114</v>
@@ -18333,10 +18333,10 @@
         <v>955</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D269" s="27" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E269" s="25" t="s">
         <v>1093</v>
@@ -18366,10 +18366,10 @@
         <v>960</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D270" s="27" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E270" s="25" t="s">
         <v>1327</v>
@@ -18399,10 +18399,10 @@
         <v>964</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D271" s="27" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E271" s="25" t="s">
         <v>1096</v>
@@ -18432,10 +18432,10 @@
         <v>967</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D272" s="27" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E272" s="25" t="s">
         <v>1328</v>
@@ -18465,10 +18465,10 @@
         <v>970</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D273" s="27" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E273" s="25" t="s">
         <v>1099</v>
@@ -18498,10 +18498,10 @@
         <v>973</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D274" s="27" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E274" s="25" t="s">
         <v>1329</v>
@@ -18531,10 +18531,10 @@
         <v>976</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D275" s="27" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E275" s="25" t="s">
         <v>1116</v>
@@ -18564,10 +18564,10 @@
         <v>979</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D276" s="27" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E276" s="25" t="s">
         <v>1118</v>
@@ -18597,10 +18597,10 @@
         <v>982</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D277" s="27" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E277" s="25" t="s">
         <v>1330</v>
@@ -18630,10 +18630,10 @@
         <v>987</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D278" s="27" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E278" s="25" t="s">
         <v>1331</v>
@@ -18663,10 +18663,10 @@
         <v>990</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D279" s="27" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E279" s="25" t="s">
         <v>1122</v>
@@ -18696,10 +18696,10 @@
         <v>993</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D280" s="27" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E280" s="25" t="s">
         <v>1124</v>
@@ -18729,10 +18729,10 @@
         <v>997</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D281" s="27" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E281" s="25" t="s">
         <v>1120</v>
@@ -18762,10 +18762,10 @@
         <v>1000</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D282" s="27" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E282" s="25" t="s">
         <v>1332</v>
@@ -18795,10 +18795,10 @@
         <v>1003</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D283" s="27" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E283" s="25" t="s">
         <v>1333</v>
@@ -18828,10 +18828,10 @@
         <v>1006</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D284" s="27" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E284" s="25" t="s">
         <v>1334</v>
@@ -18861,10 +18861,10 @@
         <v>1010</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D285" s="27" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E285" s="25" t="s">
         <v>1335</v>
@@ -18894,10 +18894,10 @@
         <v>1013</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D286" s="27" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E286" s="25" t="s">
         <v>1336</v>
@@ -18927,10 +18927,10 @@
         <v>1018</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D287" s="27" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E287" s="25" t="s">
         <v>1337</v>
@@ -18960,10 +18960,10 @@
         <v>1022</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D288" s="27" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E288" s="25" t="s">
         <v>1338</v>
@@ -18993,10 +18993,10 @@
         <v>1025</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D289" s="27" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E289" s="25" t="s">
         <v>1339</v>
@@ -19026,10 +19026,10 @@
         <v>1028</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D290" s="27" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E290" s="25" t="s">
         <v>1340</v>
@@ -19059,10 +19059,10 @@
         <v>1031</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D291" s="27" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E291" s="25" t="s">
         <v>1341</v>
@@ -19092,10 +19092,10 @@
         <v>1034</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E292" s="25" t="s">
         <v>1127</v>
@@ -19125,10 +19125,10 @@
         <v>1037</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E293" s="25" t="s">
         <v>1342</v>
@@ -19158,10 +19158,10 @@
         <v>1042</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E294" s="25" t="s">
         <v>1111</v>
@@ -19191,10 +19191,10 @@
         <v>1045</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E295" s="25" t="s">
         <v>1343</v>
@@ -19224,10 +19224,10 @@
         <v>1048</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E296" s="25" t="s">
         <v>1344</v>
@@ -19257,10 +19257,10 @@
         <v>1051</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E297" s="25" t="s">
         <v>1345</v>
@@ -19290,10 +19290,10 @@
         <v>1054</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E298" s="25" t="s">
         <v>1346</v>
@@ -19323,10 +19323,10 @@
         <v>1057</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E299" s="25" t="s">
         <v>1347</v>
@@ -19356,10 +19356,10 @@
         <v>1060</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E300" s="25" t="s">
         <v>1348</v>
@@ -19392,8 +19392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28100390-BAFB-4528-B64C-8FB8AFC2AD36}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18"/>
@@ -19420,7 +19420,7 @@
     <row r="1" spans="1:15" ht="13.95" customHeight="1" thickBot="1">
       <c r="A1" s="15"/>
       <c r="B1" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1131</v>
@@ -19464,20 +19464,20 @@
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" thickTop="1">
       <c r="A2" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1824</v>
+        <v>1821</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1825</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="23" t="s">
-        <v>1651</v>
+        <v>1832</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1650</v>
+        <v>1827</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -19493,20 +19493,20 @@
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1">
       <c r="A3" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1824</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="23" t="s">
-        <v>1832</v>
+        <v>1651</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1827</v>
+        <v>1652</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -19520,20 +19520,20 @@
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1">
       <c r="A4" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1819</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="23" t="s">
-        <v>1652</v>
+        <v>1828</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1653</v>
+        <v>1817</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -19547,20 +19547,20 @@
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1">
       <c r="A5" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1820</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="23" t="s">
         <v>1829</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1818</v>
+        <v>1833</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -19574,20 +19574,20 @@
     </row>
     <row r="6" spans="1:15" ht="18.75" customHeight="1">
       <c r="A6" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="23" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -19601,20 +19601,20 @@
     </row>
     <row r="7" spans="1:15" ht="18.75" customHeight="1">
       <c r="A7" s="16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1826</v>
+        <v>1830</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1823</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="23" t="s">
-        <v>1833</v>
+        <v>1650</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1828</v>
+        <v>1649</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>

--- a/static/SancomContents.xlsx
+++ b/static/SancomContents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oz5ja\Documents\Python\python_prg\sancom_app\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31618E6-B699-4B58-9246-540DDB645F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677B50FA-D1D7-4443-9FE5-2DC1E3FA16FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="108" windowWidth="21420" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="108" windowWidth="21048" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7628" uniqueCount="3820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7628" uniqueCount="3821">
   <si>
     <t>SampleMeaning</t>
   </si>
@@ -43794,6 +43794,28 @@
   </si>
   <si>
     <t>最好 以 投资 的 方式 来 进行 技术 转移</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>当社要求を満たす確約が得られるようにとても思えません</t>
+    <rPh sb="0" eb="2">
+      <t>トウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクヤク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモ</t>
+    </rPh>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -43801,7 +43823,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44062,6 +44084,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -44174,7 +44203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -44306,6 +44335,9 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -44626,7 +44658,7 @@
   <dimension ref="A1:O541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="C519" sqref="C519"/>
+      <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18"/>
@@ -62029,8 +62061,8 @@
       <c r="C521" s="6" t="s">
         <v>2059</v>
       </c>
-      <c r="D521" s="32" t="s">
-        <v>2037</v>
+      <c r="D521" s="45" t="s">
+        <v>3820</v>
       </c>
       <c r="E521" s="33" t="s">
         <v>2499</v>

--- a/static/SancomContents.xlsx
+++ b/static/SancomContents.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oz5ja\Documents\Python\python_prg\sancom_app\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677B50FA-D1D7-4443-9FE5-2DC1E3FA16FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E66C5-B00B-4C1A-AF1C-2CD45B7289FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="108" windowWidth="21048" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="108" windowWidth="21048" windowHeight="12252" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="sheet1 (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="sheet3" sheetId="7" r:id="rId3"/>
+    <sheet name="sheet1 (2)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7628" uniqueCount="3821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8123" uniqueCount="4301">
   <si>
     <t>SampleMeaning</t>
   </si>
@@ -43817,6 +43818,1453 @@
       <t>オモ</t>
     </rPh>
     <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>文例５４１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e541.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c541.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文例５４２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c542.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文例５４３</t>
+  </si>
+  <si>
+    <t>c543.wav</t>
+  </si>
+  <si>
+    <t>e542.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e543.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文例５４４</t>
+  </si>
+  <si>
+    <t>e544.wav</t>
+  </si>
+  <si>
+    <t>c544.wav</t>
+  </si>
+  <si>
+    <t>文例５４５</t>
+  </si>
+  <si>
+    <t>e545.wav</t>
+  </si>
+  <si>
+    <t>c545.wav</t>
+  </si>
+  <si>
+    <t>文例５４６</t>
+  </si>
+  <si>
+    <t>e546.wav</t>
+  </si>
+  <si>
+    <t>c546.wav</t>
+  </si>
+  <si>
+    <t>文例５４７</t>
+  </si>
+  <si>
+    <t>e547.wav</t>
+  </si>
+  <si>
+    <t>c547.wav</t>
+  </si>
+  <si>
+    <t>文例５４８</t>
+  </si>
+  <si>
+    <t>e548.wav</t>
+  </si>
+  <si>
+    <t>c548.wav</t>
+  </si>
+  <si>
+    <t>文例５４９</t>
+  </si>
+  <si>
+    <t>e549.wav</t>
+  </si>
+  <si>
+    <t>c549.wav</t>
+  </si>
+  <si>
+    <t>文例５５０</t>
+  </si>
+  <si>
+    <t>e550.wav</t>
+  </si>
+  <si>
+    <t>c550.wav</t>
+  </si>
+  <si>
+    <t>文例５５１</t>
+  </si>
+  <si>
+    <t>e551.wav</t>
+  </si>
+  <si>
+    <t>c551.wav</t>
+  </si>
+  <si>
+    <t>文例５５２</t>
+  </si>
+  <si>
+    <t>e552.wav</t>
+  </si>
+  <si>
+    <t>c552.wav</t>
+  </si>
+  <si>
+    <t>文例５５３</t>
+  </si>
+  <si>
+    <t>e553.wav</t>
+  </si>
+  <si>
+    <t>c553.wav</t>
+  </si>
+  <si>
+    <t>文例５５４</t>
+  </si>
+  <si>
+    <t>e554.wav</t>
+  </si>
+  <si>
+    <t>c554.wav</t>
+  </si>
+  <si>
+    <t>文例５５５</t>
+  </si>
+  <si>
+    <t>e555.wav</t>
+  </si>
+  <si>
+    <t>c555.wav</t>
+  </si>
+  <si>
+    <t>文例５５６</t>
+  </si>
+  <si>
+    <t>e556.wav</t>
+  </si>
+  <si>
+    <t>c556.wav</t>
+  </si>
+  <si>
+    <t>文例５５７</t>
+  </si>
+  <si>
+    <t>e557.wav</t>
+  </si>
+  <si>
+    <t>c557.wav</t>
+  </si>
+  <si>
+    <t>文例５５８</t>
+  </si>
+  <si>
+    <t>e558.wav</t>
+  </si>
+  <si>
+    <t>c558.wav</t>
+  </si>
+  <si>
+    <t>文例５５９</t>
+  </si>
+  <si>
+    <t>e559.wav</t>
+  </si>
+  <si>
+    <t>c559.wav</t>
+  </si>
+  <si>
+    <t>文例５６０</t>
+  </si>
+  <si>
+    <t>e560.wav</t>
+  </si>
+  <si>
+    <t>c560.wav</t>
+  </si>
+  <si>
+    <t>文例５６１</t>
+  </si>
+  <si>
+    <t>e561.wav</t>
+  </si>
+  <si>
+    <t>c561.wav</t>
+  </si>
+  <si>
+    <t>文例５６２</t>
+  </si>
+  <si>
+    <t>e562.wav</t>
+  </si>
+  <si>
+    <t>c562.wav</t>
+  </si>
+  <si>
+    <t>文例５６３</t>
+  </si>
+  <si>
+    <t>e563.wav</t>
+  </si>
+  <si>
+    <t>c563.wav</t>
+  </si>
+  <si>
+    <t>文例５６４</t>
+  </si>
+  <si>
+    <t>e564.wav</t>
+  </si>
+  <si>
+    <t>c564.wav</t>
+  </si>
+  <si>
+    <t>文例５６５</t>
+  </si>
+  <si>
+    <t>e565.wav</t>
+  </si>
+  <si>
+    <t>c565.wav</t>
+  </si>
+  <si>
+    <t>文例５６６</t>
+  </si>
+  <si>
+    <t>e566.wav</t>
+  </si>
+  <si>
+    <t>c566.wav</t>
+  </si>
+  <si>
+    <t>文例５６７</t>
+  </si>
+  <si>
+    <t>e567.wav</t>
+  </si>
+  <si>
+    <t>c567.wav</t>
+  </si>
+  <si>
+    <t>文例５６８</t>
+  </si>
+  <si>
+    <t>e568.wav</t>
+  </si>
+  <si>
+    <t>c568.wav</t>
+  </si>
+  <si>
+    <t>文例５６９</t>
+  </si>
+  <si>
+    <t>e569.wav</t>
+  </si>
+  <si>
+    <t>c569.wav</t>
+  </si>
+  <si>
+    <t>文例５７０</t>
+  </si>
+  <si>
+    <t>e570.wav</t>
+  </si>
+  <si>
+    <t>c570.wav</t>
+  </si>
+  <si>
+    <t>文例５７１</t>
+  </si>
+  <si>
+    <t>e571.wav</t>
+  </si>
+  <si>
+    <t>c571.wav</t>
+  </si>
+  <si>
+    <t>文例５７２</t>
+  </si>
+  <si>
+    <t>e572.wav</t>
+  </si>
+  <si>
+    <t>c572.wav</t>
+  </si>
+  <si>
+    <t>文例５７３</t>
+  </si>
+  <si>
+    <t>e573.wav</t>
+  </si>
+  <si>
+    <t>c573.wav</t>
+  </si>
+  <si>
+    <t>文例５７４</t>
+  </si>
+  <si>
+    <t>e574.wav</t>
+  </si>
+  <si>
+    <t>c574.wav</t>
+  </si>
+  <si>
+    <t>文例５７５</t>
+  </si>
+  <si>
+    <t>e575.wav</t>
+  </si>
+  <si>
+    <t>c575.wav</t>
+  </si>
+  <si>
+    <t>文例５７６</t>
+  </si>
+  <si>
+    <t>e576.wav</t>
+  </si>
+  <si>
+    <t>c576.wav</t>
+  </si>
+  <si>
+    <t>文例５７７</t>
+  </si>
+  <si>
+    <t>e577.wav</t>
+  </si>
+  <si>
+    <t>c577.wav</t>
+  </si>
+  <si>
+    <t>文例５７８</t>
+  </si>
+  <si>
+    <t>e578.wav</t>
+  </si>
+  <si>
+    <t>c578.wav</t>
+  </si>
+  <si>
+    <t>文例５７９</t>
+  </si>
+  <si>
+    <t>e579.wav</t>
+  </si>
+  <si>
+    <t>c579.wav</t>
+  </si>
+  <si>
+    <t>文例５８０</t>
+  </si>
+  <si>
+    <t>e580.wav</t>
+  </si>
+  <si>
+    <t>c580.wav</t>
+  </si>
+  <si>
+    <t>文例５８１</t>
+  </si>
+  <si>
+    <t>e581.wav</t>
+  </si>
+  <si>
+    <t>c581.wav</t>
+  </si>
+  <si>
+    <t>文例５８２</t>
+  </si>
+  <si>
+    <t>e582.wav</t>
+  </si>
+  <si>
+    <t>c582.wav</t>
+  </si>
+  <si>
+    <t>文例５８３</t>
+  </si>
+  <si>
+    <t>e583.wav</t>
+  </si>
+  <si>
+    <t>c583.wav</t>
+  </si>
+  <si>
+    <t>文例５８４</t>
+  </si>
+  <si>
+    <t>e584.wav</t>
+  </si>
+  <si>
+    <t>c584.wav</t>
+  </si>
+  <si>
+    <t>文例５８５</t>
+  </si>
+  <si>
+    <t>e585.wav</t>
+  </si>
+  <si>
+    <t>c585.wav</t>
+  </si>
+  <si>
+    <t>文例５８６</t>
+  </si>
+  <si>
+    <t>e586.wav</t>
+  </si>
+  <si>
+    <t>c586.wav</t>
+  </si>
+  <si>
+    <t>文例５８７</t>
+  </si>
+  <si>
+    <t>e587.wav</t>
+  </si>
+  <si>
+    <t>c587.wav</t>
+  </si>
+  <si>
+    <t>文例５８８</t>
+  </si>
+  <si>
+    <t>e588.wav</t>
+  </si>
+  <si>
+    <t>c588.wav</t>
+  </si>
+  <si>
+    <t>文例５８９</t>
+  </si>
+  <si>
+    <t>e589.wav</t>
+  </si>
+  <si>
+    <t>c589.wav</t>
+  </si>
+  <si>
+    <t>文例５９０</t>
+  </si>
+  <si>
+    <t>e590.wav</t>
+  </si>
+  <si>
+    <t>c590.wav</t>
+  </si>
+  <si>
+    <t>文例５９１</t>
+  </si>
+  <si>
+    <t>e591.wav</t>
+  </si>
+  <si>
+    <t>c591.wav</t>
+  </si>
+  <si>
+    <t>文例５９２</t>
+  </si>
+  <si>
+    <t>e592.wav</t>
+  </si>
+  <si>
+    <t>c592.wav</t>
+  </si>
+  <si>
+    <t>文例５９３</t>
+  </si>
+  <si>
+    <t>e593.wav</t>
+  </si>
+  <si>
+    <t>c593.wav</t>
+  </si>
+  <si>
+    <t>文例５９４</t>
+  </si>
+  <si>
+    <t>e594.wav</t>
+  </si>
+  <si>
+    <t>c594.wav</t>
+  </si>
+  <si>
+    <t>文例５９５</t>
+  </si>
+  <si>
+    <t>e595.wav</t>
+  </si>
+  <si>
+    <t>c595.wav</t>
+  </si>
+  <si>
+    <t>文例５９６</t>
+  </si>
+  <si>
+    <t>e596.wav</t>
+  </si>
+  <si>
+    <t>c596.wav</t>
+  </si>
+  <si>
+    <t>文例５９７</t>
+  </si>
+  <si>
+    <t>e597.wav</t>
+  </si>
+  <si>
+    <t>c597.wav</t>
+  </si>
+  <si>
+    <t>文例５９８</t>
+  </si>
+  <si>
+    <t>e598.wav</t>
+  </si>
+  <si>
+    <t>c598.wav</t>
+  </si>
+  <si>
+    <t>文例５９９</t>
+  </si>
+  <si>
+    <t>e599.wav</t>
+  </si>
+  <si>
+    <t>c599.wav</t>
+  </si>
+  <si>
+    <t>文例６００</t>
+  </si>
+  <si>
+    <t>e600.wav</t>
+  </si>
+  <si>
+    <t>c600.wav</t>
+  </si>
+  <si>
+    <t>文例６０１</t>
+  </si>
+  <si>
+    <t>e601.wav</t>
+  </si>
+  <si>
+    <t>c601.wav</t>
+  </si>
+  <si>
+    <t>文例６０２</t>
+  </si>
+  <si>
+    <t>e602.wav</t>
+  </si>
+  <si>
+    <t>c602.wav</t>
+  </si>
+  <si>
+    <t>文例６０３</t>
+  </si>
+  <si>
+    <t>e603.wav</t>
+  </si>
+  <si>
+    <t>c603.wav</t>
+  </si>
+  <si>
+    <t>文例６０４</t>
+  </si>
+  <si>
+    <t>e604.wav</t>
+  </si>
+  <si>
+    <t>c604.wav</t>
+  </si>
+  <si>
+    <t>文例６０５</t>
+  </si>
+  <si>
+    <t>e605.wav</t>
+  </si>
+  <si>
+    <t>c605.wav</t>
+  </si>
+  <si>
+    <t>文例６０６</t>
+  </si>
+  <si>
+    <t>e606.wav</t>
+  </si>
+  <si>
+    <t>c606.wav</t>
+  </si>
+  <si>
+    <t>文例６０７</t>
+  </si>
+  <si>
+    <t>e607.wav</t>
+  </si>
+  <si>
+    <t>c607.wav</t>
+  </si>
+  <si>
+    <t>文例６０８</t>
+  </si>
+  <si>
+    <t>e608.wav</t>
+  </si>
+  <si>
+    <t>c608.wav</t>
+  </si>
+  <si>
+    <t>文例６０９</t>
+  </si>
+  <si>
+    <t>e609.wav</t>
+  </si>
+  <si>
+    <t>c609.wav</t>
+  </si>
+  <si>
+    <t>文例６１０</t>
+  </si>
+  <si>
+    <t>e610.wav</t>
+  </si>
+  <si>
+    <t>c610.wav</t>
+  </si>
+  <si>
+    <t>文例６１１</t>
+  </si>
+  <si>
+    <t>e611.wav</t>
+  </si>
+  <si>
+    <t>c611.wav</t>
+  </si>
+  <si>
+    <t>文例６１２</t>
+  </si>
+  <si>
+    <t>e612.wav</t>
+  </si>
+  <si>
+    <t>c612.wav</t>
+  </si>
+  <si>
+    <t>文例６１３</t>
+  </si>
+  <si>
+    <t>e613.wav</t>
+  </si>
+  <si>
+    <t>c613.wav</t>
+  </si>
+  <si>
+    <t>文例６１４</t>
+  </si>
+  <si>
+    <t>e614.wav</t>
+  </si>
+  <si>
+    <t>c614.wav</t>
+  </si>
+  <si>
+    <t>文例６１５</t>
+  </si>
+  <si>
+    <t>e615.wav</t>
+  </si>
+  <si>
+    <t>c615.wav</t>
+  </si>
+  <si>
+    <t>文例６１６</t>
+  </si>
+  <si>
+    <t>e616.wav</t>
+  </si>
+  <si>
+    <t>c616.wav</t>
+  </si>
+  <si>
+    <t>文例６１７</t>
+  </si>
+  <si>
+    <t>e617.wav</t>
+  </si>
+  <si>
+    <t>c617.wav</t>
+  </si>
+  <si>
+    <t>文例６１８</t>
+  </si>
+  <si>
+    <t>e618.wav</t>
+  </si>
+  <si>
+    <t>c618.wav</t>
+  </si>
+  <si>
+    <t>文例６１９</t>
+  </si>
+  <si>
+    <t>e619.wav</t>
+  </si>
+  <si>
+    <t>c619.wav</t>
+  </si>
+  <si>
+    <t>文例６２０</t>
+  </si>
+  <si>
+    <t>e620.wav</t>
+  </si>
+  <si>
+    <t>c620.wav</t>
+  </si>
+  <si>
+    <t>文例６２１</t>
+  </si>
+  <si>
+    <t>e621.wav</t>
+  </si>
+  <si>
+    <t>c621.wav</t>
+  </si>
+  <si>
+    <t>文例６２２</t>
+  </si>
+  <si>
+    <t>e622.wav</t>
+  </si>
+  <si>
+    <t>c622.wav</t>
+  </si>
+  <si>
+    <t>文例６２３</t>
+  </si>
+  <si>
+    <t>e623.wav</t>
+  </si>
+  <si>
+    <t>c623.wav</t>
+  </si>
+  <si>
+    <t>文例６２４</t>
+  </si>
+  <si>
+    <t>e624.wav</t>
+  </si>
+  <si>
+    <t>c624.wav</t>
+  </si>
+  <si>
+    <t>文例６２５</t>
+  </si>
+  <si>
+    <t>e625.wav</t>
+  </si>
+  <si>
+    <t>c625.wav</t>
+  </si>
+  <si>
+    <t>文例６２６</t>
+  </si>
+  <si>
+    <t>e626.wav</t>
+  </si>
+  <si>
+    <t>c626.wav</t>
+  </si>
+  <si>
+    <t>文例６２７</t>
+  </si>
+  <si>
+    <t>e627.wav</t>
+  </si>
+  <si>
+    <t>c627.wav</t>
+  </si>
+  <si>
+    <t>文例６２８</t>
+  </si>
+  <si>
+    <t>e628.wav</t>
+  </si>
+  <si>
+    <t>c628.wav</t>
+  </si>
+  <si>
+    <t>文例６２９</t>
+  </si>
+  <si>
+    <t>e629.wav</t>
+  </si>
+  <si>
+    <t>c629.wav</t>
+  </si>
+  <si>
+    <t>文例６３０</t>
+  </si>
+  <si>
+    <t>e630.wav</t>
+  </si>
+  <si>
+    <t>c630.wav</t>
+  </si>
+  <si>
+    <t>文例６３１</t>
+  </si>
+  <si>
+    <t>e631.wav</t>
+  </si>
+  <si>
+    <t>c631.wav</t>
+  </si>
+  <si>
+    <t>文例６３２</t>
+  </si>
+  <si>
+    <t>e632.wav</t>
+  </si>
+  <si>
+    <t>c632.wav</t>
+  </si>
+  <si>
+    <t>文例６３３</t>
+  </si>
+  <si>
+    <t>e633.wav</t>
+  </si>
+  <si>
+    <t>c633.wav</t>
+  </si>
+  <si>
+    <t>文例６３４</t>
+  </si>
+  <si>
+    <t>e634.wav</t>
+  </si>
+  <si>
+    <t>c634.wav</t>
+  </si>
+  <si>
+    <t>文例６３５</t>
+  </si>
+  <si>
+    <t>e635.wav</t>
+  </si>
+  <si>
+    <t>c635.wav</t>
+  </si>
+  <si>
+    <t>文例６３６</t>
+  </si>
+  <si>
+    <t>e636.wav</t>
+  </si>
+  <si>
+    <t>c636.wav</t>
+  </si>
+  <si>
+    <t>文例６３７</t>
+  </si>
+  <si>
+    <t>e637.wav</t>
+  </si>
+  <si>
+    <t>c637.wav</t>
+  </si>
+  <si>
+    <t>文例６３８</t>
+  </si>
+  <si>
+    <t>e638.wav</t>
+  </si>
+  <si>
+    <t>c638.wav</t>
+  </si>
+  <si>
+    <t>文例６３９</t>
+  </si>
+  <si>
+    <t>e639.wav</t>
+  </si>
+  <si>
+    <t>c639.wav</t>
+  </si>
+  <si>
+    <t>文例６４０</t>
+  </si>
+  <si>
+    <t>e640.wav</t>
+  </si>
+  <si>
+    <t>c640.wav</t>
+  </si>
+  <si>
+    <t>文例６４１</t>
+  </si>
+  <si>
+    <t>e641.wav</t>
+  </si>
+  <si>
+    <t>c641.wav</t>
+  </si>
+  <si>
+    <t>文例６４２</t>
+  </si>
+  <si>
+    <t>e642.wav</t>
+  </si>
+  <si>
+    <t>c642.wav</t>
+  </si>
+  <si>
+    <t>文例６４３</t>
+  </si>
+  <si>
+    <t>e643.wav</t>
+  </si>
+  <si>
+    <t>c643.wav</t>
+  </si>
+  <si>
+    <t>文例６４４</t>
+  </si>
+  <si>
+    <t>e644.wav</t>
+  </si>
+  <si>
+    <t>c644.wav</t>
+  </si>
+  <si>
+    <t>文例６４５</t>
+  </si>
+  <si>
+    <t>e645.wav</t>
+  </si>
+  <si>
+    <t>c645.wav</t>
+  </si>
+  <si>
+    <t>文例６４６</t>
+  </si>
+  <si>
+    <t>e646.wav</t>
+  </si>
+  <si>
+    <t>c646.wav</t>
+  </si>
+  <si>
+    <t>文例６４７</t>
+  </si>
+  <si>
+    <t>e647.wav</t>
+  </si>
+  <si>
+    <t>c647.wav</t>
+  </si>
+  <si>
+    <t>文例６４８</t>
+  </si>
+  <si>
+    <t>e648.wav</t>
+  </si>
+  <si>
+    <t>c648.wav</t>
+  </si>
+  <si>
+    <t>文例６４９</t>
+  </si>
+  <si>
+    <t>e649.wav</t>
+  </si>
+  <si>
+    <t>c649.wav</t>
+  </si>
+  <si>
+    <t>文例６５０</t>
+  </si>
+  <si>
+    <t>e650.wav</t>
+  </si>
+  <si>
+    <t>c650.wav</t>
+  </si>
+  <si>
+    <t>文例６５１</t>
+  </si>
+  <si>
+    <t>e651.wav</t>
+  </si>
+  <si>
+    <t>c651.wav</t>
+  </si>
+  <si>
+    <t>文例６５２</t>
+  </si>
+  <si>
+    <t>e652.wav</t>
+  </si>
+  <si>
+    <t>c652.wav</t>
+  </si>
+  <si>
+    <t>文例６５３</t>
+  </si>
+  <si>
+    <t>e653.wav</t>
+  </si>
+  <si>
+    <t>c653.wav</t>
+  </si>
+  <si>
+    <t>文例６５４</t>
+  </si>
+  <si>
+    <t>e654.wav</t>
+  </si>
+  <si>
+    <t>c654.wav</t>
+  </si>
+  <si>
+    <t>文例６５５</t>
+  </si>
+  <si>
+    <t>e655.wav</t>
+  </si>
+  <si>
+    <t>c655.wav</t>
+  </si>
+  <si>
+    <t>文例６５６</t>
+  </si>
+  <si>
+    <t>e656.wav</t>
+  </si>
+  <si>
+    <t>c656.wav</t>
+  </si>
+  <si>
+    <t>文例６５７</t>
+  </si>
+  <si>
+    <t>e657.wav</t>
+  </si>
+  <si>
+    <t>c657.wav</t>
+  </si>
+  <si>
+    <t>文例６５８</t>
+  </si>
+  <si>
+    <t>e658.wav</t>
+  </si>
+  <si>
+    <t>c658.wav</t>
+  </si>
+  <si>
+    <t>文例６５９</t>
+  </si>
+  <si>
+    <t>e659.wav</t>
+  </si>
+  <si>
+    <t>c659.wav</t>
+  </si>
+  <si>
+    <t>文例６６０</t>
+  </si>
+  <si>
+    <t>e660.wav</t>
+  </si>
+  <si>
+    <t>c660.wav</t>
+  </si>
+  <si>
+    <t>文例６６１</t>
+  </si>
+  <si>
+    <t>e661.wav</t>
+  </si>
+  <si>
+    <t>c661.wav</t>
+  </si>
+  <si>
+    <t>文例６６２</t>
+  </si>
+  <si>
+    <t>e662.wav</t>
+  </si>
+  <si>
+    <t>c662.wav</t>
+  </si>
+  <si>
+    <t>文例６６３</t>
+  </si>
+  <si>
+    <t>e663.wav</t>
+  </si>
+  <si>
+    <t>c663.wav</t>
+  </si>
+  <si>
+    <t>文例６６４</t>
+  </si>
+  <si>
+    <t>e664.wav</t>
+  </si>
+  <si>
+    <t>c664.wav</t>
+  </si>
+  <si>
+    <t>文例６６５</t>
+  </si>
+  <si>
+    <t>e665.wav</t>
+  </si>
+  <si>
+    <t>c665.wav</t>
+  </si>
+  <si>
+    <t>文例６６６</t>
+  </si>
+  <si>
+    <t>e666.wav</t>
+  </si>
+  <si>
+    <t>c666.wav</t>
+  </si>
+  <si>
+    <t>文例６６７</t>
+  </si>
+  <si>
+    <t>e667.wav</t>
+  </si>
+  <si>
+    <t>c667.wav</t>
+  </si>
+  <si>
+    <t>文例６６８</t>
+  </si>
+  <si>
+    <t>e668.wav</t>
+  </si>
+  <si>
+    <t>c668.wav</t>
+  </si>
+  <si>
+    <t>文例６６９</t>
+  </si>
+  <si>
+    <t>e669.wav</t>
+  </si>
+  <si>
+    <t>c669.wav</t>
+  </si>
+  <si>
+    <t>文例６７０</t>
+  </si>
+  <si>
+    <t>e670.wav</t>
+  </si>
+  <si>
+    <t>c670.wav</t>
+  </si>
+  <si>
+    <t>文例６７１</t>
+  </si>
+  <si>
+    <t>e671.wav</t>
+  </si>
+  <si>
+    <t>c671.wav</t>
+  </si>
+  <si>
+    <t>文例６７２</t>
+  </si>
+  <si>
+    <t>e672.wav</t>
+  </si>
+  <si>
+    <t>c672.wav</t>
+  </si>
+  <si>
+    <t>文例６７３</t>
+  </si>
+  <si>
+    <t>e673.wav</t>
+  </si>
+  <si>
+    <t>c673.wav</t>
+  </si>
+  <si>
+    <t>文例６７４</t>
+  </si>
+  <si>
+    <t>e674.wav</t>
+  </si>
+  <si>
+    <t>c674.wav</t>
+  </si>
+  <si>
+    <t>文例６７５</t>
+  </si>
+  <si>
+    <t>e675.wav</t>
+  </si>
+  <si>
+    <t>c675.wav</t>
+  </si>
+  <si>
+    <t>文例６７６</t>
+  </si>
+  <si>
+    <t>e676.wav</t>
+  </si>
+  <si>
+    <t>c676.wav</t>
+  </si>
+  <si>
+    <t>文例６７７</t>
+  </si>
+  <si>
+    <t>e677.wav</t>
+  </si>
+  <si>
+    <t>c677.wav</t>
+  </si>
+  <si>
+    <t>文例６７８</t>
+  </si>
+  <si>
+    <t>e678.wav</t>
+  </si>
+  <si>
+    <t>c678.wav</t>
+  </si>
+  <si>
+    <t>文例６７９</t>
+  </si>
+  <si>
+    <t>e679.wav</t>
+  </si>
+  <si>
+    <t>c679.wav</t>
+  </si>
+  <si>
+    <t>文例６８０</t>
+  </si>
+  <si>
+    <t>e680.wav</t>
+  </si>
+  <si>
+    <t>c680.wav</t>
+  </si>
+  <si>
+    <t>文例６８１</t>
+  </si>
+  <si>
+    <t>e681.wav</t>
+  </si>
+  <si>
+    <t>c681.wav</t>
+  </si>
+  <si>
+    <t>文例６８２</t>
+  </si>
+  <si>
+    <t>e682.wav</t>
+  </si>
+  <si>
+    <t>c682.wav</t>
+  </si>
+  <si>
+    <t>文例６８３</t>
+  </si>
+  <si>
+    <t>e683.wav</t>
+  </si>
+  <si>
+    <t>c683.wav</t>
+  </si>
+  <si>
+    <t>文例６８４</t>
+  </si>
+  <si>
+    <t>e684.wav</t>
+  </si>
+  <si>
+    <t>c684.wav</t>
+  </si>
+  <si>
+    <t>文例６８５</t>
+  </si>
+  <si>
+    <t>e685.wav</t>
+  </si>
+  <si>
+    <t>c685.wav</t>
+  </si>
+  <si>
+    <t>文例６８６</t>
+  </si>
+  <si>
+    <t>e686.wav</t>
+  </si>
+  <si>
+    <t>c686.wav</t>
+  </si>
+  <si>
+    <t>文例６８７</t>
+  </si>
+  <si>
+    <t>e687.wav</t>
+  </si>
+  <si>
+    <t>c687.wav</t>
+  </si>
+  <si>
+    <t>文例６８８</t>
+  </si>
+  <si>
+    <t>e688.wav</t>
+  </si>
+  <si>
+    <t>c688.wav</t>
+  </si>
+  <si>
+    <t>文例６８９</t>
+  </si>
+  <si>
+    <t>e689.wav</t>
+  </si>
+  <si>
+    <t>c689.wav</t>
+  </si>
+  <si>
+    <t>文例６９０</t>
+  </si>
+  <si>
+    <t>e690.wav</t>
+  </si>
+  <si>
+    <t>c690.wav</t>
+  </si>
+  <si>
+    <t>文例６９１</t>
+  </si>
+  <si>
+    <t>e691.wav</t>
+  </si>
+  <si>
+    <t>c691.wav</t>
+  </si>
+  <si>
+    <t>文例６９２</t>
+  </si>
+  <si>
+    <t>e692.wav</t>
+  </si>
+  <si>
+    <t>c692.wav</t>
+  </si>
+  <si>
+    <t>文例６９３</t>
+  </si>
+  <si>
+    <t>e693.wav</t>
+  </si>
+  <si>
+    <t>c693.wav</t>
+  </si>
+  <si>
+    <t>文例６９４</t>
+  </si>
+  <si>
+    <t>e694.wav</t>
+  </si>
+  <si>
+    <t>c694.wav</t>
+  </si>
+  <si>
+    <t>文例６９５</t>
+  </si>
+  <si>
+    <t>e695.wav</t>
+  </si>
+  <si>
+    <t>c695.wav</t>
+  </si>
+  <si>
+    <t>文例６９６</t>
+  </si>
+  <si>
+    <t>e696.wav</t>
+  </si>
+  <si>
+    <t>c696.wav</t>
+  </si>
+  <si>
+    <t>文例６９７</t>
+  </si>
+  <si>
+    <t>e697.wav</t>
+  </si>
+  <si>
+    <t>c697.wav</t>
+  </si>
+  <si>
+    <t>文例６９８</t>
+  </si>
+  <si>
+    <t>e698.wav</t>
+  </si>
+  <si>
+    <t>c698.wav</t>
+  </si>
+  <si>
+    <t>文例６９９</t>
+  </si>
+  <si>
+    <t>e699.wav</t>
+  </si>
+  <si>
+    <t>c699.wav</t>
+  </si>
+  <si>
+    <t>文例７００</t>
+  </si>
+  <si>
+    <t>e700.wav</t>
+  </si>
+  <si>
+    <t>c700.wav</t>
   </si>
 </sst>
 </file>
@@ -44657,7 +46105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867070D-72A0-4BC5-9272-F0071B8ECF02}">
   <dimension ref="A1:O541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+    <sheetView topLeftCell="A514" workbookViewId="0">
       <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
@@ -62999,6 +64447,4284 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC73AAB-E5BF-4970-8653-9EAA5677424E}">
+  <dimension ref="A1:O161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="4.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="41.09765625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="9.59765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="52.3984375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.59765625" style="3" customWidth="1"/>
+    <col min="15" max="48" width="8.09765625" style="3" customWidth="1"/>
+    <col min="49" max="16384" width="8.09765625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="13.95" customHeight="1" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" thickTop="1">
+      <c r="A2" s="16">
+        <v>541</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3821</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="6" t="s">
+        <v>3822</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="6" t="s">
+        <v>3823</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A3" s="16">
+        <v>542</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="6" t="s">
+        <v>3828</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="6" t="s">
+        <v>3825</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A4" s="16">
+        <v>543</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="6" t="s">
+        <v>3829</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="6" t="s">
+        <v>3827</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A5" s="16">
+        <v>544</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3830</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="6" t="s">
+        <v>3831</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="6" t="s">
+        <v>3832</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A6" s="16">
+        <v>545</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="6" t="s">
+        <v>3834</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="6" t="s">
+        <v>3835</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A7" s="16">
+        <v>546</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="6" t="s">
+        <v>3837</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="6" t="s">
+        <v>3838</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A8" s="16">
+        <v>547</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3839</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="6" t="s">
+        <v>3840</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="6" t="s">
+        <v>3841</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A9" s="16">
+        <v>548</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="6" t="s">
+        <v>3843</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="6" t="s">
+        <v>3844</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A10" s="16">
+        <v>549</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3845</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="6" t="s">
+        <v>3846</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="6" t="s">
+        <v>3847</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A11" s="16">
+        <v>550</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="6" t="s">
+        <v>3849</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="6" t="s">
+        <v>3850</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A12" s="16">
+        <v>551</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>3851</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="6" t="s">
+        <v>3852</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="6" t="s">
+        <v>3853</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A13" s="16">
+        <v>552</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>3854</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="6" t="s">
+        <v>3855</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="6" t="s">
+        <v>3856</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A14" s="16">
+        <v>553</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="6" t="s">
+        <v>3858</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="6" t="s">
+        <v>3859</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A15" s="16">
+        <v>554</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="6" t="s">
+        <v>3861</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="6" t="s">
+        <v>3862</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A16" s="16">
+        <v>555</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="6" t="s">
+        <v>3864</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="6" t="s">
+        <v>3865</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A17" s="16">
+        <v>556</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="6" t="s">
+        <v>3867</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="6" t="s">
+        <v>3868</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A18" s="16">
+        <v>557</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3869</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="6" t="s">
+        <v>3870</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="6" t="s">
+        <v>3871</v>
+      </c>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A19" s="16">
+        <v>558</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>3872</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="6" t="s">
+        <v>3873</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="6" t="s">
+        <v>3874</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A20" s="16">
+        <v>559</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="6" t="s">
+        <v>3876</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="6" t="s">
+        <v>3877</v>
+      </c>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A21" s="16">
+        <v>560</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="6" t="s">
+        <v>3879</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="6" t="s">
+        <v>3880</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A22" s="16">
+        <v>561</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="6" t="s">
+        <v>3882</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="6" t="s">
+        <v>3883</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A23" s="16">
+        <v>562</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="6" t="s">
+        <v>3885</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="6" t="s">
+        <v>3886</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A24" s="16">
+        <v>563</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3887</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="6" t="s">
+        <v>3888</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="6" t="s">
+        <v>3889</v>
+      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A25" s="16">
+        <v>564</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="6" t="s">
+        <v>3891</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="6" t="s">
+        <v>3892</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A26" s="16">
+        <v>565</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>3893</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="6" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="6" t="s">
+        <v>3895</v>
+      </c>
+      <c r="L26" s="19"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A27" s="16">
+        <v>566</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="6" t="s">
+        <v>3897</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="6" t="s">
+        <v>3898</v>
+      </c>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A28" s="16">
+        <v>567</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="6" t="s">
+        <v>3900</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="6" t="s">
+        <v>3901</v>
+      </c>
+      <c r="L28" s="18"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A29" s="16">
+        <v>568</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="6" t="s">
+        <v>3903</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="6" t="s">
+        <v>3904</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A30" s="16">
+        <v>569</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3905</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="6" t="s">
+        <v>3906</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="6" t="s">
+        <v>3907</v>
+      </c>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A31" s="16">
+        <v>570</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="6" t="s">
+        <v>3909</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="6" t="s">
+        <v>3910</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A32" s="16">
+        <v>571</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>3911</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="6" t="s">
+        <v>3912</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="6" t="s">
+        <v>3913</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A33" s="16">
+        <v>572</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="6" t="s">
+        <v>3915</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="6" t="s">
+        <v>3916</v>
+      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A34" s="16">
+        <v>573</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>3917</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="6" t="s">
+        <v>3918</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="6" t="s">
+        <v>3919</v>
+      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A35" s="16">
+        <v>574</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>3920</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="6" t="s">
+        <v>3921</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="6" t="s">
+        <v>3922</v>
+      </c>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A36" s="16">
+        <v>575</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>3923</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="6" t="s">
+        <v>3924</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="6" t="s">
+        <v>3925</v>
+      </c>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A37" s="16">
+        <v>576</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="6" t="s">
+        <v>3927</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="6" t="s">
+        <v>3928</v>
+      </c>
+      <c r="L37" s="19"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A38" s="16">
+        <v>577</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>3929</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="6" t="s">
+        <v>3930</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="6" t="s">
+        <v>3931</v>
+      </c>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A39" s="16">
+        <v>578</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>3932</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="6" t="s">
+        <v>3933</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="6" t="s">
+        <v>3934</v>
+      </c>
+      <c r="L39" s="19"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A40" s="16">
+        <v>579</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>3935</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="6" t="s">
+        <v>3936</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="6" t="s">
+        <v>3937</v>
+      </c>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A41" s="16">
+        <v>580</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>3938</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="6" t="s">
+        <v>3939</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="6" t="s">
+        <v>3940</v>
+      </c>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A42" s="16">
+        <v>581</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="6" t="s">
+        <v>3942</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="6" t="s">
+        <v>3943</v>
+      </c>
+      <c r="L42" s="19"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A43" s="16">
+        <v>582</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="6" t="s">
+        <v>3945</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="6" t="s">
+        <v>3946</v>
+      </c>
+      <c r="L43" s="19"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A44" s="16">
+        <v>583</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="6" t="s">
+        <v>3948</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="6" t="s">
+        <v>3949</v>
+      </c>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A45" s="16">
+        <v>584</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="6" t="s">
+        <v>3951</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="6" t="s">
+        <v>3952</v>
+      </c>
+      <c r="L45" s="18"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A46" s="16">
+        <v>585</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>3953</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="6" t="s">
+        <v>3954</v>
+      </c>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="6" t="s">
+        <v>3955</v>
+      </c>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A47" s="16">
+        <v>586</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>3956</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="6" t="s">
+        <v>3957</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="6" t="s">
+        <v>3958</v>
+      </c>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A48" s="16">
+        <v>587</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="6" t="s">
+        <v>3960</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="6" t="s">
+        <v>3961</v>
+      </c>
+      <c r="L48" s="19"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A49" s="16">
+        <v>588</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="6" t="s">
+        <v>3963</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="6" t="s">
+        <v>3964</v>
+      </c>
+      <c r="L49" s="18"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A50" s="16">
+        <v>589</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="6" t="s">
+        <v>3966</v>
+      </c>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="6" t="s">
+        <v>3967</v>
+      </c>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A51" s="16">
+        <v>590</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="6" t="s">
+        <v>3969</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="6" t="s">
+        <v>3970</v>
+      </c>
+      <c r="L51" s="19"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A52" s="16">
+        <v>591</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>3971</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="6" t="s">
+        <v>3972</v>
+      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="6" t="s">
+        <v>3973</v>
+      </c>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A53" s="16">
+        <v>592</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>3974</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="6" t="s">
+        <v>3975</v>
+      </c>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="6" t="s">
+        <v>3976</v>
+      </c>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A54" s="16">
+        <v>593</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>3977</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="6" t="s">
+        <v>3978</v>
+      </c>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="6" t="s">
+        <v>3979</v>
+      </c>
+      <c r="L54" s="18"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A55" s="16">
+        <v>594</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>3980</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="6" t="s">
+        <v>3981</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="6" t="s">
+        <v>3982</v>
+      </c>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A56" s="16">
+        <v>595</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>3983</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="6" t="s">
+        <v>3984</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="6" t="s">
+        <v>3985</v>
+      </c>
+      <c r="L56" s="19"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A57" s="16">
+        <v>596</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="6" t="s">
+        <v>3987</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="6" t="s">
+        <v>3988</v>
+      </c>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A58" s="16">
+        <v>597</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="6" t="s">
+        <v>3990</v>
+      </c>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="6" t="s">
+        <v>3991</v>
+      </c>
+      <c r="L58" s="18"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A59" s="16">
+        <v>598</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>3992</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="6" t="s">
+        <v>3993</v>
+      </c>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="6" t="s">
+        <v>3994</v>
+      </c>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A60" s="16">
+        <v>599</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>3995</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="6" t="s">
+        <v>3996</v>
+      </c>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="6" t="s">
+        <v>3997</v>
+      </c>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A61" s="16">
+        <v>600</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="6" t="s">
+        <v>3999</v>
+      </c>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="6" t="s">
+        <v>4000</v>
+      </c>
+      <c r="L61" s="18"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A62" s="16">
+        <v>601</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="6" t="s">
+        <v>4002</v>
+      </c>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="6" t="s">
+        <v>4003</v>
+      </c>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A63" s="16">
+        <v>602</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="6" t="s">
+        <v>4005</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="6" t="s">
+        <v>4006</v>
+      </c>
+      <c r="L63" s="19"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A64" s="16">
+        <v>603</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="6" t="s">
+        <v>4008</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="6" t="s">
+        <v>4009</v>
+      </c>
+      <c r="L64" s="19"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A65" s="16">
+        <v>604</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="6" t="s">
+        <v>4011</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="6" t="s">
+        <v>4012</v>
+      </c>
+      <c r="L65" s="19"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A66" s="16">
+        <v>605</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="6" t="s">
+        <v>4014</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="6" t="s">
+        <v>4015</v>
+      </c>
+      <c r="L66" s="19"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A67" s="16">
+        <v>606</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="6" t="s">
+        <v>4017</v>
+      </c>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="6" t="s">
+        <v>4018</v>
+      </c>
+      <c r="L67" s="19"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A68" s="16">
+        <v>607</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>4019</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="6" t="s">
+        <v>4020</v>
+      </c>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="6" t="s">
+        <v>4021</v>
+      </c>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A69" s="16">
+        <v>608</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="6" t="s">
+        <v>4023</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="6" t="s">
+        <v>4024</v>
+      </c>
+      <c r="L69" s="19"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A70" s="16">
+        <v>609</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>4025</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="6" t="s">
+        <v>4026</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="6" t="s">
+        <v>4027</v>
+      </c>
+      <c r="L70" s="19"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A71" s="16">
+        <v>610</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="6" t="s">
+        <v>4029</v>
+      </c>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="6" t="s">
+        <v>4030</v>
+      </c>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A72" s="16">
+        <v>611</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="6" t="s">
+        <v>4032</v>
+      </c>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="6" t="s">
+        <v>4033</v>
+      </c>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A73" s="16">
+        <v>612</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="6" t="s">
+        <v>4035</v>
+      </c>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="6" t="s">
+        <v>4036</v>
+      </c>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A74" s="16">
+        <v>613</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>4037</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="6" t="s">
+        <v>4038</v>
+      </c>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="6" t="s">
+        <v>4039</v>
+      </c>
+      <c r="L74" s="18"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A75" s="16">
+        <v>614</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>4040</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="6" t="s">
+        <v>4041</v>
+      </c>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="6" t="s">
+        <v>4042</v>
+      </c>
+      <c r="L75" s="19"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A76" s="16">
+        <v>615</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="6" t="s">
+        <v>4044</v>
+      </c>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="6" t="s">
+        <v>4045</v>
+      </c>
+      <c r="L76" s="18"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A77" s="16">
+        <v>616</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>4046</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="6" t="s">
+        <v>4047</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="6" t="s">
+        <v>4048</v>
+      </c>
+      <c r="L77" s="18"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A78" s="16">
+        <v>617</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="6" t="s">
+        <v>4050</v>
+      </c>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="6" t="s">
+        <v>4051</v>
+      </c>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A79" s="16">
+        <v>618</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="6" t="s">
+        <v>4053</v>
+      </c>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="6" t="s">
+        <v>4054</v>
+      </c>
+      <c r="L79" s="19"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A80" s="16">
+        <v>619</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="6" t="s">
+        <v>4056</v>
+      </c>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="6" t="s">
+        <v>4057</v>
+      </c>
+      <c r="L80" s="18"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A81" s="16">
+        <v>620</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="6" t="s">
+        <v>4059</v>
+      </c>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="6" t="s">
+        <v>4060</v>
+      </c>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A82" s="16">
+        <v>621</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="6" t="s">
+        <v>4062</v>
+      </c>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="6" t="s">
+        <v>4063</v>
+      </c>
+      <c r="L82" s="19"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A83" s="16">
+        <v>622</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>4064</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="6" t="s">
+        <v>4065</v>
+      </c>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="6" t="s">
+        <v>4066</v>
+      </c>
+      <c r="L83" s="18"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A84" s="16">
+        <v>623</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="6" t="s">
+        <v>4068</v>
+      </c>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="6" t="s">
+        <v>4069</v>
+      </c>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A85" s="16">
+        <v>624</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="6" t="s">
+        <v>4071</v>
+      </c>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="6" t="s">
+        <v>4072</v>
+      </c>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A86" s="16">
+        <v>625</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="6" t="s">
+        <v>4074</v>
+      </c>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="6" t="s">
+        <v>4075</v>
+      </c>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A87" s="16">
+        <v>626</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="6" t="s">
+        <v>4077</v>
+      </c>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="6" t="s">
+        <v>4078</v>
+      </c>
+      <c r="L87" s="18"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A88" s="16">
+        <v>627</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="6" t="s">
+        <v>4080</v>
+      </c>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="6" t="s">
+        <v>4081</v>
+      </c>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A89" s="16">
+        <v>628</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="6" t="s">
+        <v>4083</v>
+      </c>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="6" t="s">
+        <v>4084</v>
+      </c>
+      <c r="L89" s="19"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A90" s="16">
+        <v>629</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="6" t="s">
+        <v>4086</v>
+      </c>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="6" t="s">
+        <v>4087</v>
+      </c>
+      <c r="L90" s="19"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A91" s="16">
+        <v>630</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>4088</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="6" t="s">
+        <v>4089</v>
+      </c>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="6" t="s">
+        <v>4090</v>
+      </c>
+      <c r="L91" s="19"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A92" s="16">
+        <v>631</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="6" t="s">
+        <v>4092</v>
+      </c>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="6" t="s">
+        <v>4093</v>
+      </c>
+      <c r="L92" s="18"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A93" s="16">
+        <v>632</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>4094</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="6" t="s">
+        <v>4095</v>
+      </c>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="6" t="s">
+        <v>4096</v>
+      </c>
+      <c r="L93" s="19"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A94" s="16">
+        <v>633</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>4097</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="6" t="s">
+        <v>4098</v>
+      </c>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="6" t="s">
+        <v>4099</v>
+      </c>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A95" s="16">
+        <v>634</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="6" t="s">
+        <v>4101</v>
+      </c>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="6" t="s">
+        <v>4102</v>
+      </c>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A96" s="16">
+        <v>635</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>4103</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="6" t="s">
+        <v>4104</v>
+      </c>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="6" t="s">
+        <v>4105</v>
+      </c>
+      <c r="L96" s="18"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A97" s="16">
+        <v>636</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="6" t="s">
+        <v>4107</v>
+      </c>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="6" t="s">
+        <v>4108</v>
+      </c>
+      <c r="L97" s="18"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A98" s="16">
+        <v>637</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="6" t="s">
+        <v>4110</v>
+      </c>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="6" t="s">
+        <v>4111</v>
+      </c>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A99" s="16">
+        <v>638</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>4112</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="6" t="s">
+        <v>4113</v>
+      </c>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="6" t="s">
+        <v>4114</v>
+      </c>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A100" s="16">
+        <v>639</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>4115</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="6" t="s">
+        <v>4116</v>
+      </c>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="6" t="s">
+        <v>4117</v>
+      </c>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A101" s="16">
+        <v>640</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>4118</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="6" t="s">
+        <v>4119</v>
+      </c>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="6" t="s">
+        <v>4120</v>
+      </c>
+      <c r="L101" s="19"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="16">
+        <v>641</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="6" t="s">
+        <v>4122</v>
+      </c>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="6" t="s">
+        <v>4123</v>
+      </c>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="16">
+        <v>642</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="6" t="s">
+        <v>4125</v>
+      </c>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="39"/>
+      <c r="K103" s="6" t="s">
+        <v>4126</v>
+      </c>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="16">
+        <v>643</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>4127</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="6" t="s">
+        <v>4128</v>
+      </c>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="39"/>
+      <c r="K104" s="6" t="s">
+        <v>4129</v>
+      </c>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="16">
+        <v>644</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="6" t="s">
+        <v>4131</v>
+      </c>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="6" t="s">
+        <v>4132</v>
+      </c>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="16">
+        <v>645</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>4133</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="6" t="s">
+        <v>4134</v>
+      </c>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="39"/>
+      <c r="K106" s="6" t="s">
+        <v>4135</v>
+      </c>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="16">
+        <v>646</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="6" t="s">
+        <v>4137</v>
+      </c>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="6" t="s">
+        <v>4138</v>
+      </c>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="16">
+        <v>647</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>4139</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="6" t="s">
+        <v>4140</v>
+      </c>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="39"/>
+      <c r="K108" s="6" t="s">
+        <v>4141</v>
+      </c>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="16">
+        <v>648</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>4142</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="6" t="s">
+        <v>4143</v>
+      </c>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="6" t="s">
+        <v>4144</v>
+      </c>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="16">
+        <v>649</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>4145</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="6" t="s">
+        <v>4146</v>
+      </c>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="6" t="s">
+        <v>4147</v>
+      </c>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="16">
+        <v>650</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>4148</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="6" t="s">
+        <v>4149</v>
+      </c>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="6" t="s">
+        <v>4150</v>
+      </c>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="16">
+        <v>651</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>4151</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="6" t="s">
+        <v>4152</v>
+      </c>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="39"/>
+      <c r="K112" s="6" t="s">
+        <v>4153</v>
+      </c>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="16">
+        <v>652</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>4154</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="6" t="s">
+        <v>4155</v>
+      </c>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="6" t="s">
+        <v>4156</v>
+      </c>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="16">
+        <v>653</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>4157</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="6" t="s">
+        <v>4158</v>
+      </c>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="39"/>
+      <c r="K114" s="6" t="s">
+        <v>4159</v>
+      </c>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="16">
+        <v>654</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>4160</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="6" t="s">
+        <v>4161</v>
+      </c>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="39"/>
+      <c r="K115" s="6" t="s">
+        <v>4162</v>
+      </c>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="16">
+        <v>655</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>4163</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="6" t="s">
+        <v>4164</v>
+      </c>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="39"/>
+      <c r="K116" s="6" t="s">
+        <v>4165</v>
+      </c>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="16">
+        <v>656</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="6" t="s">
+        <v>4167</v>
+      </c>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="6" t="s">
+        <v>4168</v>
+      </c>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="16">
+        <v>657</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="6" t="s">
+        <v>4170</v>
+      </c>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="39"/>
+      <c r="K118" s="6" t="s">
+        <v>4171</v>
+      </c>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="16">
+        <v>658</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="6" t="s">
+        <v>4173</v>
+      </c>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="6" t="s">
+        <v>4174</v>
+      </c>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="16">
+        <v>659</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>4175</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="6" t="s">
+        <v>4176</v>
+      </c>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="39"/>
+      <c r="K120" s="6" t="s">
+        <v>4177</v>
+      </c>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="16">
+        <v>660</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>4178</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="6" t="s">
+        <v>4179</v>
+      </c>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="6" t="s">
+        <v>4180</v>
+      </c>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="16">
+        <v>661</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>4181</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="6" t="s">
+        <v>4182</v>
+      </c>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="39"/>
+      <c r="K122" s="6" t="s">
+        <v>4183</v>
+      </c>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="16">
+        <v>662</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="6" t="s">
+        <v>4185</v>
+      </c>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="39"/>
+      <c r="K123" s="6" t="s">
+        <v>4186</v>
+      </c>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="16">
+        <v>663</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>4187</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="6" t="s">
+        <v>4188</v>
+      </c>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="39"/>
+      <c r="K124" s="6" t="s">
+        <v>4189</v>
+      </c>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="16">
+        <v>664</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="6" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="6" t="s">
+        <v>4192</v>
+      </c>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="8"/>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="16">
+        <v>665</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>4193</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="6" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="39"/>
+      <c r="K126" s="6" t="s">
+        <v>4195</v>
+      </c>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="16">
+        <v>666</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>4196</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="6" t="s">
+        <v>4197</v>
+      </c>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="39"/>
+      <c r="K127" s="6" t="s">
+        <v>4198</v>
+      </c>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="16">
+        <v>667</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>4199</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="6" t="s">
+        <v>4200</v>
+      </c>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="39"/>
+      <c r="K128" s="6" t="s">
+        <v>4201</v>
+      </c>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="16">
+        <v>668</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="6" t="s">
+        <v>4203</v>
+      </c>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="39"/>
+      <c r="K129" s="6" t="s">
+        <v>4204</v>
+      </c>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="16">
+        <v>669</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>4205</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="6" t="s">
+        <v>4206</v>
+      </c>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="39"/>
+      <c r="K130" s="6" t="s">
+        <v>4207</v>
+      </c>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="16">
+        <v>670</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>4208</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="6" t="s">
+        <v>4209</v>
+      </c>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="6" t="s">
+        <v>4210</v>
+      </c>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="16">
+        <v>671</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>4211</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="6" t="s">
+        <v>4212</v>
+      </c>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="6" t="s">
+        <v>4213</v>
+      </c>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="16">
+        <v>672</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>4214</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="6" t="s">
+        <v>4215</v>
+      </c>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="6" t="s">
+        <v>4216</v>
+      </c>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="8"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="16">
+        <v>673</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="6" t="s">
+        <v>4218</v>
+      </c>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="39"/>
+      <c r="K134" s="6" t="s">
+        <v>4219</v>
+      </c>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="8"/>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="16">
+        <v>674</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>4220</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="6" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="39"/>
+      <c r="K135" s="6" t="s">
+        <v>4222</v>
+      </c>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="8"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="16">
+        <v>675</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>4223</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="6" t="s">
+        <v>4224</v>
+      </c>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="39"/>
+      <c r="K136" s="6" t="s">
+        <v>4225</v>
+      </c>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="16">
+        <v>676</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>4226</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="6" t="s">
+        <v>4227</v>
+      </c>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="39"/>
+      <c r="K137" s="6" t="s">
+        <v>4228</v>
+      </c>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="16">
+        <v>677</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>4229</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="6" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="39"/>
+      <c r="K138" s="6" t="s">
+        <v>4231</v>
+      </c>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="16">
+        <v>678</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="6" t="s">
+        <v>4233</v>
+      </c>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="39"/>
+      <c r="K139" s="6" t="s">
+        <v>4234</v>
+      </c>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8"/>
+      <c r="O139" s="8"/>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="16">
+        <v>679</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>4235</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="6" t="s">
+        <v>4236</v>
+      </c>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="39"/>
+      <c r="K140" s="6" t="s">
+        <v>4237</v>
+      </c>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="16">
+        <v>680</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="6" t="s">
+        <v>4239</v>
+      </c>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="39"/>
+      <c r="K141" s="6" t="s">
+        <v>4240</v>
+      </c>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="16">
+        <v>681</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>4241</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="6" t="s">
+        <v>4242</v>
+      </c>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="6" t="s">
+        <v>4243</v>
+      </c>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="8"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="16">
+        <v>682</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="6" t="s">
+        <v>4245</v>
+      </c>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="39"/>
+      <c r="K143" s="6" t="s">
+        <v>4246</v>
+      </c>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="8"/>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="16">
+        <v>683</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>4247</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="6" t="s">
+        <v>4248</v>
+      </c>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="39"/>
+      <c r="K144" s="6" t="s">
+        <v>4249</v>
+      </c>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="8"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="16">
+        <v>684</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>4250</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="6" t="s">
+        <v>4251</v>
+      </c>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="39"/>
+      <c r="K145" s="6" t="s">
+        <v>4252</v>
+      </c>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="8"/>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="16">
+        <v>685</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>4253</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="6" t="s">
+        <v>4254</v>
+      </c>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="39"/>
+      <c r="K146" s="6" t="s">
+        <v>4255</v>
+      </c>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="8"/>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="16">
+        <v>686</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="39"/>
+      <c r="K147" s="6" t="s">
+        <v>4258</v>
+      </c>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="16">
+        <v>687</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>4259</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="6" t="s">
+        <v>4260</v>
+      </c>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="6" t="s">
+        <v>4261</v>
+      </c>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="16">
+        <v>688</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>4262</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="6" t="s">
+        <v>4263</v>
+      </c>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="39"/>
+      <c r="K149" s="6" t="s">
+        <v>4264</v>
+      </c>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="16">
+        <v>689</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>4265</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="6" t="s">
+        <v>4266</v>
+      </c>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="39"/>
+      <c r="K150" s="6" t="s">
+        <v>4267</v>
+      </c>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="8"/>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="16">
+        <v>690</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>4268</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="6" t="s">
+        <v>4269</v>
+      </c>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="39"/>
+      <c r="K151" s="6" t="s">
+        <v>4270</v>
+      </c>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="8"/>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="16">
+        <v>691</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>4271</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="6" t="s">
+        <v>4272</v>
+      </c>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="39"/>
+      <c r="K152" s="6" t="s">
+        <v>4273</v>
+      </c>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="16">
+        <v>692</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>4274</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="6" t="s">
+        <v>4275</v>
+      </c>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="39"/>
+      <c r="K153" s="6" t="s">
+        <v>4276</v>
+      </c>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
+      <c r="O153" s="8"/>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="16">
+        <v>693</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>4277</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="6" t="s">
+        <v>4278</v>
+      </c>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="39"/>
+      <c r="K154" s="6" t="s">
+        <v>4279</v>
+      </c>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="16">
+        <v>694</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>4280</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="6" t="s">
+        <v>4281</v>
+      </c>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="39"/>
+      <c r="K155" s="6" t="s">
+        <v>4282</v>
+      </c>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
+      <c r="O155" s="8"/>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="16">
+        <v>695</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="6" t="s">
+        <v>4284</v>
+      </c>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="39"/>
+      <c r="K156" s="6" t="s">
+        <v>4285</v>
+      </c>
+      <c r="L156" s="8"/>
+      <c r="M156" s="8"/>
+      <c r="N156" s="8"/>
+      <c r="O156" s="8"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="16">
+        <v>696</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>4286</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="6" t="s">
+        <v>4287</v>
+      </c>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="39"/>
+      <c r="K157" s="6" t="s">
+        <v>4288</v>
+      </c>
+      <c r="L157" s="8"/>
+      <c r="M157" s="8"/>
+      <c r="N157" s="8"/>
+      <c r="O157" s="8"/>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="16">
+        <v>697</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>4289</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="6" t="s">
+        <v>4290</v>
+      </c>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="39"/>
+      <c r="K158" s="6" t="s">
+        <v>4291</v>
+      </c>
+      <c r="L158" s="8"/>
+      <c r="M158" s="8"/>
+      <c r="N158" s="8"/>
+      <c r="O158" s="8"/>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="16">
+        <v>698</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>4292</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="6" t="s">
+        <v>4293</v>
+      </c>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="39"/>
+      <c r="K159" s="6" t="s">
+        <v>4294</v>
+      </c>
+      <c r="L159" s="8"/>
+      <c r="M159" s="8"/>
+      <c r="N159" s="8"/>
+      <c r="O159" s="8"/>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="16">
+        <v>699</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>4295</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="6" t="s">
+        <v>4296</v>
+      </c>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="39"/>
+      <c r="K160" s="6" t="s">
+        <v>4297</v>
+      </c>
+      <c r="L160" s="8"/>
+      <c r="M160" s="8"/>
+      <c r="N160" s="8"/>
+      <c r="O160" s="8"/>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="16">
+        <v>700</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="6" t="s">
+        <v>4299</v>
+      </c>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="39"/>
+      <c r="K161" s="6" t="s">
+        <v>4300</v>
+      </c>
+      <c r="L161" s="8"/>
+      <c r="M161" s="8"/>
+      <c r="N161" s="8"/>
+      <c r="O161" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA26A98E-6261-4E0F-86E2-432AE8B57561}">
   <dimension ref="A1:O541"/>
   <sheetViews>
